--- a/norms.xlsx
+++ b/norms.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Dropbox\STUDIES\R\Experiment Data\responses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Dropbox\STUDIES\R\Experiment Data\Modality norms\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8033" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8033"/>
   </bookViews>
   <sheets>
-    <sheet name="Norms" sheetId="1" r:id="rId1"/>
-    <sheet name="Definitions" sheetId="2" r:id="rId2"/>
+    <sheet name="Definitions" sheetId="2" r:id="rId1"/>
+    <sheet name="Norms" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Norms!$A$1:$Y$748</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Norms!$A$1:$Y$748</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -4303,6 +4303,238 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="126.1328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.06640625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:Y748"/>
@@ -58092,234 +58324,4 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:C26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="35.33203125" customWidth="1"/>
-    <col min="2" max="2" width="126.1328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.06640625" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/norms.xlsx
+++ b/norms.xlsx
@@ -4349,7 +4349,7 @@
   <dimension ref="A1:XFC29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -21117,7 +21117,7 @@
         <v>32</v>
       </c>
       <c r="H2" s="5">
-        <f t="shared" ref="H2:H65" si="0">MAX(I2,J2,K2)</f>
+        <f>MAX(I2,J2,K2)</f>
         <v>4.2857000000000003</v>
       </c>
       <c r="I2" s="5">
@@ -21194,7 +21194,7 @@
         <v>29</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I3,J3,K3)</f>
         <v>2.8571</v>
       </c>
       <c r="I3" s="5">
@@ -21271,7 +21271,7 @@
         <v>29</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I4,J4,K4)</f>
         <v>2</v>
       </c>
       <c r="I4" s="5">
@@ -21348,7 +21348,7 @@
         <v>29</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I5,J5,K5)</f>
         <v>1.3332999999999999</v>
       </c>
       <c r="I5" s="5">
@@ -21427,7 +21427,7 @@
         <v>29</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I6,J6,K6)</f>
         <v>1.3332999999999999</v>
       </c>
       <c r="I6" s="5">
@@ -21496,7 +21496,7 @@
         <v>29</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I7,J7,K7)</f>
         <v>2.3332999999999999</v>
       </c>
       <c r="I7" s="5">
@@ -21573,7 +21573,7 @@
         <v>29</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I8,J8,K8)</f>
         <v>1.4443999999999999</v>
       </c>
       <c r="I8" s="5">
@@ -21650,7 +21650,7 @@
         <v>29</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I9,J9,K9)</f>
         <v>1.8889</v>
       </c>
       <c r="I9" s="5">
@@ -21727,7 +21727,7 @@
         <v>32</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I10,J10,K10)</f>
         <v>4.5556000000000001</v>
       </c>
       <c r="I10" s="5">
@@ -21804,7 +21804,7 @@
         <v>29</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I11,J11,K11)</f>
         <v>1.2222</v>
       </c>
       <c r="I11" s="5">
@@ -21881,7 +21881,7 @@
         <v>29</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I12,J12,K12)</f>
         <v>1.3332999999999999</v>
       </c>
       <c r="I12" s="5">
@@ -21958,7 +21958,7 @@
         <v>29</v>
       </c>
       <c r="H13" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I13,J13,K13)</f>
         <v>1.6667000000000001</v>
       </c>
       <c r="I13" s="5">
@@ -22035,7 +22035,7 @@
         <v>29</v>
       </c>
       <c r="H14" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I14,J14,K14)</f>
         <v>1.4286000000000001</v>
       </c>
       <c r="I14" s="5">
@@ -22112,7 +22112,7 @@
         <v>29</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I15,J15,K15)</f>
         <v>2.3332999999999999</v>
       </c>
       <c r="I15" s="5">
@@ -22189,7 +22189,7 @@
         <v>29</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I16,J16,K16)</f>
         <v>1.3332999999999999</v>
       </c>
       <c r="I16" s="5">
@@ -22266,7 +22266,7 @@
         <v>29</v>
       </c>
       <c r="H17" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I17,J17,K17)</f>
         <v>2.7778</v>
       </c>
       <c r="I17" s="5">
@@ -22341,7 +22341,7 @@
         <v>29</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I18,J18,K18)</f>
         <v>0.85709999999999997</v>
       </c>
       <c r="I18" s="5">
@@ -22418,7 +22418,7 @@
         <v>29</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I19,J19,K19)</f>
         <v>3.5556000000000001</v>
       </c>
       <c r="I19" s="5">
@@ -22495,7 +22495,7 @@
         <v>32</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I20,J20,K20)</f>
         <v>4.6666999999999996</v>
       </c>
       <c r="I20" s="5">
@@ -22572,7 +22572,7 @@
         <v>29</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I21,J21,K21)</f>
         <v>2.7778</v>
       </c>
       <c r="I21" s="5">
@@ -22649,7 +22649,7 @@
         <v>29</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I22,J22,K22)</f>
         <v>2.1111</v>
       </c>
       <c r="I22" s="5">
@@ -22726,7 +22726,7 @@
         <v>29</v>
       </c>
       <c r="H23" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I23,J23,K23)</f>
         <v>1.4443999999999999</v>
       </c>
       <c r="I23" s="5">
@@ -22801,7 +22801,7 @@
         <v>29</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I24,J24,K24)</f>
         <v>0.875</v>
       </c>
       <c r="I24" s="5">
@@ -22878,7 +22878,7 @@
         <v>29</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I25,J25,K25)</f>
         <v>0.44440000000000002</v>
       </c>
       <c r="I25" s="5">
@@ -22955,7 +22955,7 @@
         <v>29</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I26,J26,K26)</f>
         <v>2</v>
       </c>
       <c r="I26" s="5">
@@ -23032,7 +23032,7 @@
         <v>29</v>
       </c>
       <c r="H27" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I27,J27,K27)</f>
         <v>2.6667000000000001</v>
       </c>
       <c r="I27" s="5">
@@ -23109,7 +23109,7 @@
         <v>29</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I28,J28,K28)</f>
         <v>4.2222</v>
       </c>
       <c r="I28" s="5">
@@ -23186,7 +23186,7 @@
         <v>30</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I29,J29,K29)</f>
         <v>3.8571</v>
       </c>
       <c r="I29" s="5">
@@ -23263,7 +23263,7 @@
         <v>29</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I30,J30,K30)</f>
         <v>2.4443999999999999</v>
       </c>
       <c r="I30" s="5">
@@ -23340,7 +23340,7 @@
         <v>29</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I31,J31,K31)</f>
         <v>2.4443999999999999</v>
       </c>
       <c r="I31" s="5">
@@ -23417,7 +23417,7 @@
         <v>29</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I32,J32,K32)</f>
         <v>4.1111000000000004</v>
       </c>
       <c r="I32" s="5">
@@ -23494,7 +23494,7 @@
         <v>29</v>
       </c>
       <c r="H33" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I33,J33,K33)</f>
         <v>2.4443999999999999</v>
       </c>
       <c r="I33" s="5">
@@ -23563,7 +23563,7 @@
         <v>29</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I34,J34,K34)</f>
         <v>1.3332999999999999</v>
       </c>
       <c r="I34" s="5">
@@ -23640,7 +23640,7 @@
         <v>29</v>
       </c>
       <c r="H35" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I35,J35,K35)</f>
         <v>2.7778</v>
       </c>
       <c r="I35" s="5">
@@ -23717,7 +23717,7 @@
         <v>29</v>
       </c>
       <c r="H36" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I36,J36,K36)</f>
         <v>4.5713999999999997</v>
       </c>
       <c r="I36" s="5">
@@ -23794,7 +23794,7 @@
         <v>29</v>
       </c>
       <c r="H37" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I37,J37,K37)</f>
         <v>3</v>
       </c>
       <c r="I37" s="5">
@@ -23871,7 +23871,7 @@
         <v>29</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I38,J38,K38)</f>
         <v>1.5556000000000001</v>
       </c>
       <c r="I38" s="5">
@@ -23948,7 +23948,7 @@
         <v>29</v>
       </c>
       <c r="H39" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I39,J39,K39)</f>
         <v>3.6</v>
       </c>
       <c r="I39" s="5">
@@ -24027,7 +24027,7 @@
         <v>29</v>
       </c>
       <c r="H40" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I40,J40,K40)</f>
         <v>1</v>
       </c>
       <c r="I40" s="5">
@@ -24104,7 +24104,7 @@
         <v>30</v>
       </c>
       <c r="H41" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I41,J41,K41)</f>
         <v>1.8889</v>
       </c>
       <c r="I41" s="5">
@@ -24181,7 +24181,7 @@
         <v>29</v>
       </c>
       <c r="H42" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I42,J42,K42)</f>
         <v>0.88890000000000002</v>
       </c>
       <c r="I42" s="5">
@@ -24260,7 +24260,7 @@
         <v>29</v>
       </c>
       <c r="H43" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I43,J43,K43)</f>
         <v>4.7778</v>
       </c>
       <c r="I43" s="5">
@@ -24337,7 +24337,7 @@
         <v>29</v>
       </c>
       <c r="H44" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I44,J44,K44)</f>
         <v>2.25</v>
       </c>
       <c r="I44" s="5">
@@ -24400,7 +24400,7 @@
         <v>29</v>
       </c>
       <c r="H45" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I45,J45,K45)</f>
         <v>2.7143000000000002</v>
       </c>
       <c r="I45" s="5">
@@ -24469,7 +24469,7 @@
         <v>29</v>
       </c>
       <c r="H46" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I46,J46,K46)</f>
         <v>1.8571</v>
       </c>
       <c r="I46" s="5">
@@ -24546,7 +24546,7 @@
         <v>29</v>
       </c>
       <c r="H47" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I47,J47,K47)</f>
         <v>1</v>
       </c>
       <c r="I47" s="5">
@@ -24623,7 +24623,7 @@
         <v>29</v>
       </c>
       <c r="H48" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I48,J48,K48)</f>
         <v>1</v>
       </c>
       <c r="I48" s="5">
@@ -24700,7 +24700,7 @@
         <v>30</v>
       </c>
       <c r="H49" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I49,J49,K49)</f>
         <v>2.2222</v>
       </c>
       <c r="I49" s="5">
@@ -24777,7 +24777,7 @@
         <v>29</v>
       </c>
       <c r="H50" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I50,J50,K50)</f>
         <v>1</v>
       </c>
       <c r="I50" s="5">
@@ -24854,7 +24854,7 @@
         <v>29</v>
       </c>
       <c r="H51" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I51,J51,K51)</f>
         <v>1.4</v>
       </c>
       <c r="I51" s="5">
@@ -24931,7 +24931,7 @@
         <v>29</v>
       </c>
       <c r="H52" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I52,J52,K52)</f>
         <v>1.8571</v>
       </c>
       <c r="I52" s="5">
@@ -25008,7 +25008,7 @@
         <v>29</v>
       </c>
       <c r="H53" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I53,J53,K53)</f>
         <v>1.5713999999999999</v>
       </c>
       <c r="I53" s="5">
@@ -25085,7 +25085,7 @@
         <v>30</v>
       </c>
       <c r="H54" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I54,J54,K54)</f>
         <v>2.8</v>
       </c>
       <c r="I54" s="5">
@@ -25152,7 +25152,7 @@
         <v>29</v>
       </c>
       <c r="H55" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I55,J55,K55)</f>
         <v>2.7143000000000002</v>
       </c>
       <c r="I55" s="5">
@@ -25229,7 +25229,7 @@
         <v>29</v>
       </c>
       <c r="H56" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I56,J56,K56)</f>
         <v>1.4</v>
       </c>
       <c r="I56" s="5">
@@ -25308,7 +25308,7 @@
         <v>29</v>
       </c>
       <c r="H57" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I57,J57,K57)</f>
         <v>2.7143000000000002</v>
       </c>
       <c r="I57" s="5">
@@ -25385,7 +25385,7 @@
         <v>29</v>
       </c>
       <c r="H58" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I58,J58,K58)</f>
         <v>2.4285999999999999</v>
       </c>
       <c r="I58" s="5">
@@ -25462,7 +25462,7 @@
         <v>32</v>
       </c>
       <c r="H59" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I59,J59,K59)</f>
         <v>4.875</v>
       </c>
       <c r="I59" s="5">
@@ -25531,7 +25531,7 @@
         <v>29</v>
       </c>
       <c r="H60" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I60,J60,K60)</f>
         <v>0.77780000000000005</v>
       </c>
       <c r="I60" s="5">
@@ -25610,7 +25610,7 @@
         <v>29</v>
       </c>
       <c r="H61" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I61,J61,K61)</f>
         <v>1</v>
       </c>
       <c r="I61" s="5">
@@ -25689,7 +25689,7 @@
         <v>29</v>
       </c>
       <c r="H62" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I62,J62,K62)</f>
         <v>3.4</v>
       </c>
       <c r="I62" s="5">
@@ -25768,7 +25768,7 @@
         <v>29</v>
       </c>
       <c r="H63" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I63,J63,K63)</f>
         <v>2.1111</v>
       </c>
       <c r="I63" s="5">
@@ -25845,7 +25845,7 @@
         <v>29</v>
       </c>
       <c r="H64" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I64,J64,K64)</f>
         <v>2.3332999999999999</v>
       </c>
       <c r="I64" s="5">
@@ -25922,7 +25922,7 @@
         <v>29</v>
       </c>
       <c r="H65" s="5">
-        <f t="shared" si="0"/>
+        <f>MAX(I65,J65,K65)</f>
         <v>1.125</v>
       </c>
       <c r="I65" s="5">
@@ -25997,7 +25997,7 @@
         <v>29</v>
       </c>
       <c r="H66" s="5">
-        <f t="shared" ref="H66:H129" si="1">MAX(I66,J66,K66)</f>
+        <f>MAX(I66,J66,K66)</f>
         <v>2</v>
       </c>
       <c r="I66" s="5">
@@ -26076,7 +26076,7 @@
         <v>29</v>
       </c>
       <c r="H67" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I67,J67,K67)</f>
         <v>1.3332999999999999</v>
       </c>
       <c r="I67" s="5">
@@ -26153,7 +26153,7 @@
         <v>29</v>
       </c>
       <c r="H68" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I68,J68,K68)</f>
         <v>0.7</v>
       </c>
       <c r="I68" s="5">
@@ -26232,7 +26232,7 @@
         <v>29</v>
       </c>
       <c r="H69" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I69,J69,K69)</f>
         <v>1.7778</v>
       </c>
       <c r="I69" s="5">
@@ -26309,7 +26309,7 @@
         <v>29</v>
       </c>
       <c r="H70" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I70,J70,K70)</f>
         <v>3.1429</v>
       </c>
       <c r="I70" s="5">
@@ -26386,7 +26386,7 @@
         <v>29</v>
       </c>
       <c r="H71" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I71,J71,K71)</f>
         <v>1.5713999999999999</v>
       </c>
       <c r="I71" s="5">
@@ -26463,7 +26463,7 @@
         <v>29</v>
       </c>
       <c r="H72" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I72,J72,K72)</f>
         <v>2.6</v>
       </c>
       <c r="I72" s="5">
@@ -26540,7 +26540,7 @@
         <v>32</v>
       </c>
       <c r="H73" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I73,J73,K73)</f>
         <v>4</v>
       </c>
       <c r="I73" s="5">
@@ -26609,7 +26609,7 @@
         <v>29</v>
       </c>
       <c r="H74" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I74,J74,K74)</f>
         <v>4</v>
       </c>
       <c r="I74" s="5">
@@ -26686,7 +26686,7 @@
         <v>30</v>
       </c>
       <c r="H75" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I75,J75,K75)</f>
         <v>4</v>
       </c>
       <c r="I75" s="5">
@@ -26763,7 +26763,7 @@
         <v>30</v>
       </c>
       <c r="H76" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I76,J76,K76)</f>
         <v>3.7143000000000002</v>
       </c>
       <c r="I76" s="5">
@@ -26840,7 +26840,7 @@
         <v>32</v>
       </c>
       <c r="H77" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I77,J77,K77)</f>
         <v>2.5</v>
       </c>
       <c r="I77" s="5">
@@ -26905,7 +26905,7 @@
         <v>29</v>
       </c>
       <c r="H78" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I78,J78,K78)</f>
         <v>2.6667000000000001</v>
       </c>
       <c r="I78" s="5">
@@ -26982,7 +26982,7 @@
         <v>29</v>
       </c>
       <c r="H79" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I79,J79,K79)</f>
         <v>2.5556000000000001</v>
       </c>
       <c r="I79" s="5">
@@ -27059,7 +27059,7 @@
         <v>29</v>
       </c>
       <c r="H80" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I80,J80,K80)</f>
         <v>2</v>
       </c>
       <c r="I80" s="5">
@@ -27138,7 +27138,7 @@
         <v>29</v>
       </c>
       <c r="H81" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I81,J81,K81)</f>
         <v>3</v>
       </c>
       <c r="I81" s="5">
@@ -27217,7 +27217,7 @@
         <v>29</v>
       </c>
       <c r="H82" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I82,J82,K82)</f>
         <v>2.5</v>
       </c>
       <c r="I82" s="5">
@@ -27296,7 +27296,7 @@
         <v>30</v>
       </c>
       <c r="H83" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I83,J83,K83)</f>
         <v>2.5556000000000001</v>
       </c>
       <c r="I83" s="5">
@@ -27373,7 +27373,7 @@
         <v>32</v>
       </c>
       <c r="H84" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I84,J84,K84)</f>
         <v>2.7778</v>
       </c>
       <c r="I84" s="5">
@@ -27442,7 +27442,7 @@
         <v>29</v>
       </c>
       <c r="H85" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I85,J85,K85)</f>
         <v>1.2222</v>
       </c>
       <c r="I85" s="5">
@@ -27521,7 +27521,7 @@
         <v>32</v>
       </c>
       <c r="H86" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I86,J86,K86)</f>
         <v>3</v>
       </c>
       <c r="I86" s="5">
@@ -27584,7 +27584,7 @@
         <v>29</v>
       </c>
       <c r="H87" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I87,J87,K87)</f>
         <v>0.76670000000000005</v>
       </c>
       <c r="I87" s="5">
@@ -27663,7 +27663,7 @@
         <v>30</v>
       </c>
       <c r="H88" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I88,J88,K88)</f>
         <v>3.25</v>
       </c>
       <c r="I88" s="5">
@@ -27742,7 +27742,7 @@
         <v>29</v>
       </c>
       <c r="H89" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I89,J89,K89)</f>
         <v>0.66669999999999996</v>
       </c>
       <c r="I89" s="5">
@@ -27821,7 +27821,7 @@
         <v>29</v>
       </c>
       <c r="H90" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I90,J90,K90)</f>
         <v>1.6</v>
       </c>
       <c r="I90" s="5">
@@ -27886,7 +27886,7 @@
         <v>29</v>
       </c>
       <c r="H91" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I91,J91,K91)</f>
         <v>3.1111</v>
       </c>
       <c r="I91" s="5">
@@ -27963,7 +27963,7 @@
         <v>29</v>
       </c>
       <c r="H92" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I92,J92,K92)</f>
         <v>1.5556000000000001</v>
       </c>
       <c r="I92" s="5">
@@ -28040,7 +28040,7 @@
         <v>29</v>
       </c>
       <c r="H93" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I93,J93,K93)</f>
         <v>1.8889</v>
       </c>
       <c r="I93" s="5">
@@ -28113,7 +28113,7 @@
         <v>29</v>
       </c>
       <c r="H94" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I94,J94,K94)</f>
         <v>2</v>
       </c>
       <c r="I94" s="5">
@@ -28190,7 +28190,7 @@
         <v>29</v>
       </c>
       <c r="H95" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I95,J95,K95)</f>
         <v>3.1111</v>
       </c>
       <c r="I95" s="5">
@@ -28267,7 +28267,7 @@
         <v>32</v>
       </c>
       <c r="H96" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I96,J96,K96)</f>
         <v>2</v>
       </c>
       <c r="I96" s="5">
@@ -28344,7 +28344,7 @@
         <v>29</v>
       </c>
       <c r="H97" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I97,J97,K97)</f>
         <v>1.1111</v>
       </c>
       <c r="I97" s="5">
@@ -28423,7 +28423,7 @@
         <v>32</v>
       </c>
       <c r="H98" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I98,J98,K98)</f>
         <v>4</v>
       </c>
       <c r="I98" s="5">
@@ -28500,7 +28500,7 @@
         <v>29</v>
       </c>
       <c r="H99" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I99,J99,K99)</f>
         <v>1.625</v>
       </c>
       <c r="I99" s="5">
@@ -28577,7 +28577,7 @@
         <v>29</v>
       </c>
       <c r="H100" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I100,J100,K100)</f>
         <v>2.3332999999999999</v>
       </c>
       <c r="I100" s="5">
@@ -28654,7 +28654,7 @@
         <v>29</v>
       </c>
       <c r="H101" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I101,J101,K101)</f>
         <v>2.4443999999999999</v>
       </c>
       <c r="I101" s="5">
@@ -28731,7 +28731,7 @@
         <v>29</v>
       </c>
       <c r="H102" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I102,J102,K102)</f>
         <v>1</v>
       </c>
       <c r="I102" s="5">
@@ -28802,7 +28802,7 @@
         <v>29</v>
       </c>
       <c r="H103" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I103,J103,K103)</f>
         <v>2.4443999999999999</v>
       </c>
       <c r="I103" s="5">
@@ -28877,7 +28877,7 @@
         <v>30</v>
       </c>
       <c r="H104" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I104,J104,K104)</f>
         <v>3.7143000000000002</v>
       </c>
       <c r="I104" s="5">
@@ -28954,7 +28954,7 @@
         <v>29</v>
       </c>
       <c r="H105" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I105,J105,K105)</f>
         <v>2.3332999999999999</v>
       </c>
       <c r="I105" s="5">
@@ -29031,7 +29031,7 @@
         <v>29</v>
       </c>
       <c r="H106" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I106,J106,K106)</f>
         <v>2</v>
       </c>
       <c r="I106" s="5">
@@ -29108,7 +29108,7 @@
         <v>29</v>
       </c>
       <c r="H107" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I107,J107,K107)</f>
         <v>1.5556000000000001</v>
       </c>
       <c r="I107" s="5">
@@ -29185,7 +29185,7 @@
         <v>29</v>
       </c>
       <c r="H108" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I108,J108,K108)</f>
         <v>2.8571</v>
       </c>
       <c r="I108" s="5">
@@ -29262,7 +29262,7 @@
         <v>29</v>
       </c>
       <c r="H109" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I109,J109,K109)</f>
         <v>3.5556000000000001</v>
       </c>
       <c r="I109" s="5">
@@ -29339,7 +29339,7 @@
         <v>29</v>
       </c>
       <c r="H110" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I110,J110,K110)</f>
         <v>0.875</v>
       </c>
       <c r="I110" s="5">
@@ -29416,7 +29416,7 @@
         <v>29</v>
       </c>
       <c r="H111" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I111,J111,K111)</f>
         <v>3.25</v>
       </c>
       <c r="I111" s="5">
@@ -29495,7 +29495,7 @@
         <v>29</v>
       </c>
       <c r="H112" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I112,J112,K112)</f>
         <v>1.75</v>
       </c>
       <c r="I112" s="5">
@@ -29572,7 +29572,7 @@
         <v>30</v>
       </c>
       <c r="H113" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I113,J113,K113)</f>
         <v>4.5713999999999997</v>
       </c>
       <c r="I113" s="5">
@@ -29649,7 +29649,7 @@
         <v>29</v>
       </c>
       <c r="H114" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I114,J114,K114)</f>
         <v>2.4443999999999999</v>
       </c>
       <c r="I114" s="5">
@@ -29726,7 +29726,7 @@
         <v>29</v>
       </c>
       <c r="H115" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I115,J115,K115)</f>
         <v>1.5556000000000001</v>
       </c>
       <c r="I115" s="5">
@@ -29803,7 +29803,7 @@
         <v>29</v>
       </c>
       <c r="H116" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I116,J116,K116)</f>
         <v>1</v>
       </c>
       <c r="I116" s="5">
@@ -29880,7 +29880,7 @@
         <v>32</v>
       </c>
       <c r="H117" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I117,J117,K117)</f>
         <v>2.6667000000000001</v>
       </c>
       <c r="I117" s="5">
@@ -29957,7 +29957,7 @@
         <v>29</v>
       </c>
       <c r="H118" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I118,J118,K118)</f>
         <v>2.1111</v>
       </c>
       <c r="I118" s="5">
@@ -30032,7 +30032,7 @@
         <v>29</v>
       </c>
       <c r="H119" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I119,J119,K119)</f>
         <v>2.4</v>
       </c>
       <c r="I119" s="5">
@@ -30111,7 +30111,7 @@
         <v>29</v>
       </c>
       <c r="H120" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I120,J120,K120)</f>
         <v>2.4443999999999999</v>
       </c>
       <c r="I120" s="5">
@@ -30188,7 +30188,7 @@
         <v>29</v>
       </c>
       <c r="H121" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I121,J121,K121)</f>
         <v>2.4443999999999999</v>
       </c>
       <c r="I121" s="5">
@@ -30267,7 +30267,7 @@
         <v>32</v>
       </c>
       <c r="H122" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I122,J122,K122)</f>
         <v>2.8125</v>
       </c>
       <c r="I122" s="5">
@@ -30344,7 +30344,7 @@
         <v>29</v>
       </c>
       <c r="H123" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I123,J123,K123)</f>
         <v>2.3332999999999999</v>
       </c>
       <c r="I123" s="5">
@@ -30423,7 +30423,7 @@
         <v>29</v>
       </c>
       <c r="H124" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I124,J124,K124)</f>
         <v>2.6667000000000001</v>
       </c>
       <c r="I124" s="5">
@@ -30500,7 +30500,7 @@
         <v>32</v>
       </c>
       <c r="H125" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I125,J125,K125)</f>
         <v>3.3332999999999999</v>
       </c>
       <c r="I125" s="5">
@@ -30569,7 +30569,7 @@
         <v>29</v>
       </c>
       <c r="H126" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I126,J126,K126)</f>
         <v>0.77780000000000005</v>
       </c>
       <c r="I126" s="5">
@@ -30648,7 +30648,7 @@
         <v>30</v>
       </c>
       <c r="H127" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I127,J127,K127)</f>
         <v>3.3</v>
       </c>
       <c r="I127" s="5">
@@ -30727,7 +30727,7 @@
         <v>29</v>
       </c>
       <c r="H128" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I128,J128,K128)</f>
         <v>2</v>
       </c>
       <c r="I128" s="5">
@@ -30804,7 +30804,7 @@
         <v>29</v>
       </c>
       <c r="H129" s="5">
-        <f t="shared" si="1"/>
+        <f>MAX(I129,J129,K129)</f>
         <v>0.88890000000000002</v>
       </c>
       <c r="I129" s="5">
@@ -30883,7 +30883,7 @@
         <v>29</v>
       </c>
       <c r="H130" s="5">
-        <f t="shared" ref="H130:H193" si="2">MAX(I130,J130,K130)</f>
+        <f>MAX(I130,J130,K130)</f>
         <v>4</v>
       </c>
       <c r="I130" s="5">
@@ -30948,7 +30948,7 @@
         <v>29</v>
       </c>
       <c r="H131" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I131,J131,K131)</f>
         <v>0.69769999999999999</v>
       </c>
       <c r="I131" s="5">
@@ -31025,7 +31025,7 @@
         <v>30</v>
       </c>
       <c r="H132" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I132,J132,K132)</f>
         <v>4.625</v>
       </c>
       <c r="I132" s="5">
@@ -31104,7 +31104,7 @@
         <v>29</v>
       </c>
       <c r="H133" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I133,J133,K133)</f>
         <v>3.1111</v>
       </c>
       <c r="I133" s="5">
@@ -31181,7 +31181,7 @@
         <v>30</v>
       </c>
       <c r="H134" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I134,J134,K134)</f>
         <v>4</v>
       </c>
       <c r="I134" s="5">
@@ -31244,7 +31244,7 @@
         <v>30</v>
       </c>
       <c r="H135" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I135,J135,K135)</f>
         <v>4.3333000000000004</v>
       </c>
       <c r="I135" s="5">
@@ -31321,7 +31321,7 @@
         <v>29</v>
       </c>
       <c r="H136" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I136,J136,K136)</f>
         <v>1.2222</v>
       </c>
       <c r="I136" s="5">
@@ -31398,7 +31398,7 @@
         <v>29</v>
       </c>
       <c r="H137" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I137,J137,K137)</f>
         <v>2.875</v>
       </c>
       <c r="I137" s="5">
@@ -31475,7 +31475,7 @@
         <v>29</v>
       </c>
       <c r="H138" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I138,J138,K138)</f>
         <v>3</v>
       </c>
       <c r="I138" s="5">
@@ -31554,7 +31554,7 @@
         <v>29</v>
       </c>
       <c r="H139" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I139,J139,K139)</f>
         <v>2.1111</v>
       </c>
       <c r="I139" s="5">
@@ -31631,7 +31631,7 @@
         <v>29</v>
       </c>
       <c r="H140" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I140,J140,K140)</f>
         <v>2.2856999999999998</v>
       </c>
       <c r="I140" s="5">
@@ -31708,7 +31708,7 @@
         <v>29</v>
       </c>
       <c r="H141" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I141,J141,K141)</f>
         <v>2.125</v>
       </c>
       <c r="I141" s="5">
@@ -31787,7 +31787,7 @@
         <v>29</v>
       </c>
       <c r="H142" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I142,J142,K142)</f>
         <v>4.3333000000000004</v>
       </c>
       <c r="I142" s="5">
@@ -31864,7 +31864,7 @@
         <v>30</v>
       </c>
       <c r="H143" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I143,J143,K143)</f>
         <v>3.3332999999999999</v>
       </c>
       <c r="I143" s="5">
@@ -31941,7 +31941,7 @@
         <v>29</v>
       </c>
       <c r="H144" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I144,J144,K144)</f>
         <v>4.2222</v>
       </c>
       <c r="I144" s="5">
@@ -32018,7 +32018,7 @@
         <v>32</v>
       </c>
       <c r="H145" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I145,J145,K145)</f>
         <v>4.625</v>
       </c>
       <c r="I145" s="5">
@@ -32085,7 +32085,7 @@
         <v>32</v>
       </c>
       <c r="H146" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I146,J146,K146)</f>
         <v>2.6667000000000001</v>
       </c>
       <c r="I146" s="5">
@@ -32162,7 +32162,7 @@
         <v>29</v>
       </c>
       <c r="H147" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I147,J147,K147)</f>
         <v>2.5714000000000001</v>
       </c>
       <c r="I147" s="5">
@@ -32239,7 +32239,7 @@
         <v>29</v>
       </c>
       <c r="H148" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I148,J148,K148)</f>
         <v>0.90910000000000002</v>
       </c>
       <c r="I148" s="5">
@@ -32316,7 +32316,7 @@
         <v>29</v>
       </c>
       <c r="H149" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I149,J149,K149)</f>
         <v>2</v>
       </c>
       <c r="I149" s="5">
@@ -32393,7 +32393,7 @@
         <v>29</v>
       </c>
       <c r="H150" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I150,J150,K150)</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="I150" s="5">
@@ -32472,7 +32472,7 @@
         <v>29</v>
       </c>
       <c r="H151" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I151,J151,K151)</f>
         <v>2.1429</v>
       </c>
       <c r="I151" s="5">
@@ -32549,7 +32549,7 @@
         <v>29</v>
       </c>
       <c r="H152" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I152,J152,K152)</f>
         <v>2.1111</v>
       </c>
       <c r="I152" s="5">
@@ -32626,7 +32626,7 @@
         <v>32</v>
       </c>
       <c r="H153" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I153,J153,K153)</f>
         <v>2.9375</v>
       </c>
       <c r="I153" s="5">
@@ -32703,7 +32703,7 @@
         <v>29</v>
       </c>
       <c r="H154" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I154,J154,K154)</f>
         <v>2.6</v>
       </c>
       <c r="I154" s="5">
@@ -32780,7 +32780,7 @@
         <v>29</v>
       </c>
       <c r="H155" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I155,J155,K155)</f>
         <v>1.3332999999999999</v>
       </c>
       <c r="I155" s="5">
@@ -32859,7 +32859,7 @@
         <v>29</v>
       </c>
       <c r="H156" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I156,J156,K156)</f>
         <v>3.3332999999999999</v>
       </c>
       <c r="I156" s="5">
@@ -32936,7 +32936,7 @@
         <v>29</v>
       </c>
       <c r="H157" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I157,J157,K157)</f>
         <v>1.6667000000000001</v>
       </c>
       <c r="I157" s="5">
@@ -33015,7 +33015,7 @@
         <v>32</v>
       </c>
       <c r="H158" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I158,J158,K158)</f>
         <v>4.5556000000000001</v>
       </c>
       <c r="I158" s="5">
@@ -33092,7 +33092,7 @@
         <v>29</v>
       </c>
       <c r="H159" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I159,J159,K159)</f>
         <v>0.77780000000000005</v>
       </c>
       <c r="I159" s="5">
@@ -33169,7 +33169,7 @@
         <v>32</v>
       </c>
       <c r="H160" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I160,J160,K160)</f>
         <v>4</v>
       </c>
       <c r="I160" s="5">
@@ -33246,7 +33246,7 @@
         <v>29</v>
       </c>
       <c r="H161" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I161,J161,K161)</f>
         <v>2.7778</v>
       </c>
       <c r="I161" s="5">
@@ -33317,7 +33317,7 @@
         <v>29</v>
       </c>
       <c r="H162" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I162,J162,K162)</f>
         <v>1.5</v>
       </c>
       <c r="I162" s="5">
@@ -33392,7 +33392,7 @@
         <v>29</v>
       </c>
       <c r="H163" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I163,J163,K163)</f>
         <v>2.4443999999999999</v>
       </c>
       <c r="I163" s="5">
@@ -33469,7 +33469,7 @@
         <v>29</v>
       </c>
       <c r="H164" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I164,J164,K164)</f>
         <v>2.5556000000000001</v>
       </c>
       <c r="I164" s="5">
@@ -33546,7 +33546,7 @@
         <v>29</v>
       </c>
       <c r="H165" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I165,J165,K165)</f>
         <v>1.7142999999999999</v>
       </c>
       <c r="I165" s="5">
@@ -33623,7 +33623,7 @@
         <v>32</v>
       </c>
       <c r="H166" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I166,J166,K166)</f>
         <v>3.8889</v>
       </c>
       <c r="I166" s="5">
@@ -33700,7 +33700,7 @@
         <v>32</v>
       </c>
       <c r="H167" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I167,J167,K167)</f>
         <v>3.7143000000000002</v>
       </c>
       <c r="I167" s="5">
@@ -33775,7 +33775,7 @@
         <v>32</v>
       </c>
       <c r="H168" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I168,J168,K168)</f>
         <v>1.375</v>
       </c>
       <c r="I168" s="5">
@@ -33852,7 +33852,7 @@
         <v>29</v>
       </c>
       <c r="H169" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I169,J169,K169)</f>
         <v>1.5556000000000001</v>
       </c>
       <c r="I169" s="5">
@@ -33925,7 +33925,7 @@
         <v>29</v>
       </c>
       <c r="H170" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I170,J170,K170)</f>
         <v>2</v>
       </c>
       <c r="I170" s="5">
@@ -34002,7 +34002,7 @@
         <v>29</v>
       </c>
       <c r="H171" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I171,J171,K171)</f>
         <v>1.875</v>
       </c>
       <c r="I171" s="5">
@@ -34079,7 +34079,7 @@
         <v>29</v>
       </c>
       <c r="H172" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I172,J172,K172)</f>
         <v>1</v>
       </c>
       <c r="I172" s="5">
@@ -34148,7 +34148,7 @@
         <v>29</v>
       </c>
       <c r="H173" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I173,J173,K173)</f>
         <v>1.5</v>
       </c>
       <c r="I173" s="5">
@@ -34213,7 +34213,7 @@
         <v>32</v>
       </c>
       <c r="H174" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I174,J174,K174)</f>
         <v>3.3</v>
       </c>
       <c r="I174" s="5">
@@ -34284,7 +34284,7 @@
         <v>32</v>
       </c>
       <c r="H175" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I175,J175,K175)</f>
         <v>3</v>
       </c>
       <c r="I175" s="5">
@@ -34353,7 +34353,7 @@
         <v>29</v>
       </c>
       <c r="H176" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I176,J176,K176)</f>
         <v>2</v>
       </c>
       <c r="I176" s="5">
@@ -34428,7 +34428,7 @@
         <v>29</v>
       </c>
       <c r="H177" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I177,J177,K177)</f>
         <v>1.125</v>
       </c>
       <c r="I177" s="5">
@@ -34505,7 +34505,7 @@
         <v>29</v>
       </c>
       <c r="H178" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I178,J178,K178)</f>
         <v>1.5713999999999999</v>
       </c>
       <c r="I178" s="5">
@@ -34582,7 +34582,7 @@
         <v>29</v>
       </c>
       <c r="H179" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I179,J179,K179)</f>
         <v>2</v>
       </c>
       <c r="I179" s="5">
@@ -34659,7 +34659,7 @@
         <v>29</v>
       </c>
       <c r="H180" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I180,J180,K180)</f>
         <v>0.91890000000000005</v>
       </c>
       <c r="I180" s="5">
@@ -34736,7 +34736,7 @@
         <v>29</v>
       </c>
       <c r="H181" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I181,J181,K181)</f>
         <v>1.7778</v>
       </c>
       <c r="I181" s="5">
@@ -34813,7 +34813,7 @@
         <v>32</v>
       </c>
       <c r="H182" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I182,J182,K182)</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="I182" s="5">
@@ -34878,7 +34878,7 @@
         <v>29</v>
       </c>
       <c r="H183" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I183,J183,K183)</f>
         <v>2.6667000000000001</v>
       </c>
       <c r="I183" s="5">
@@ -34955,7 +34955,7 @@
         <v>29</v>
       </c>
       <c r="H184" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I184,J184,K184)</f>
         <v>1.3332999999999999</v>
       </c>
       <c r="I184" s="5">
@@ -35032,7 +35032,7 @@
         <v>29</v>
       </c>
       <c r="H185" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I185,J185,K185)</f>
         <v>2.3332999999999999</v>
       </c>
       <c r="I185" s="5">
@@ -35109,7 +35109,7 @@
         <v>29</v>
       </c>
       <c r="H186" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I186,J186,K186)</f>
         <v>1.4443999999999999</v>
       </c>
       <c r="I186" s="5">
@@ -35180,7 +35180,7 @@
         <v>29</v>
       </c>
       <c r="H187" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I187,J187,K187)</f>
         <v>3.1111</v>
       </c>
       <c r="I187" s="5">
@@ -35259,7 +35259,7 @@
         <v>30</v>
       </c>
       <c r="H188" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I188,J188,K188)</f>
         <v>2.5556000000000001</v>
       </c>
       <c r="I188" s="5">
@@ -35338,7 +35338,7 @@
         <v>32</v>
       </c>
       <c r="H189" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I189,J189,K189)</f>
         <v>4.2</v>
       </c>
       <c r="I189" s="5">
@@ -35415,7 +35415,7 @@
         <v>29</v>
       </c>
       <c r="H190" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I190,J190,K190)</f>
         <v>0.875</v>
       </c>
       <c r="I190" s="5">
@@ -35494,7 +35494,7 @@
         <v>30</v>
       </c>
       <c r="H191" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I191,J191,K191)</f>
         <v>1.3332999999999999</v>
       </c>
       <c r="I191" s="5">
@@ -35571,7 +35571,7 @@
         <v>32</v>
       </c>
       <c r="H192" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I192,J192,K192)</f>
         <v>4.8888999999999996</v>
       </c>
       <c r="I192" s="5">
@@ -35648,7 +35648,7 @@
         <v>29</v>
       </c>
       <c r="H193" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(I193,J193,K193)</f>
         <v>3.3332999999999999</v>
       </c>
       <c r="I193" s="5">
@@ -35725,7 +35725,7 @@
         <v>29</v>
       </c>
       <c r="H194" s="5">
-        <f t="shared" ref="H194:H257" si="3">MAX(I194,J194,K194)</f>
+        <f>MAX(I194,J194,K194)</f>
         <v>0.71430000000000005</v>
       </c>
       <c r="I194" s="5">
@@ -35802,7 +35802,7 @@
         <v>32</v>
       </c>
       <c r="H195" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I195,J195,K195)</f>
         <v>4.5713999999999997</v>
       </c>
       <c r="I195" s="5">
@@ -35879,7 +35879,7 @@
         <v>32</v>
       </c>
       <c r="H196" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I196,J196,K196)</f>
         <v>3.3332999999999999</v>
       </c>
       <c r="I196" s="5">
@@ -35956,7 +35956,7 @@
         <v>29</v>
       </c>
       <c r="H197" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I197,J197,K197)</f>
         <v>1.8571</v>
       </c>
       <c r="I197" s="5">
@@ -36033,7 +36033,7 @@
         <v>30</v>
       </c>
       <c r="H198" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I198,J198,K198)</f>
         <v>1.4</v>
       </c>
       <c r="I198" s="5">
@@ -36104,7 +36104,7 @@
         <v>29</v>
       </c>
       <c r="H199" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I199,J199,K199)</f>
         <v>2.4443999999999999</v>
       </c>
       <c r="I199" s="5">
@@ -36181,7 +36181,7 @@
         <v>29</v>
       </c>
       <c r="H200" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I200,J200,K200)</f>
         <v>2.4443999999999999</v>
       </c>
       <c r="I200" s="5">
@@ -36258,7 +36258,7 @@
         <v>29</v>
       </c>
       <c r="H201" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I201,J201,K201)</f>
         <v>1.6667000000000001</v>
       </c>
       <c r="I201" s="5">
@@ -36321,7 +36321,7 @@
         <v>29</v>
       </c>
       <c r="H202" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I202,J202,K202)</f>
         <v>2</v>
       </c>
       <c r="I202" s="5">
@@ -36390,7 +36390,7 @@
         <v>29</v>
       </c>
       <c r="H203" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I203,J203,K203)</f>
         <v>2.875</v>
       </c>
       <c r="I203" s="5">
@@ -36459,7 +36459,7 @@
         <v>29</v>
       </c>
       <c r="H204" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I204,J204,K204)</f>
         <v>3.5556000000000001</v>
       </c>
       <c r="I204" s="5">
@@ -36536,7 +36536,7 @@
         <v>32</v>
       </c>
       <c r="H205" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I205,J205,K205)</f>
         <v>4.5713999999999997</v>
       </c>
       <c r="I205" s="5">
@@ -36613,7 +36613,7 @@
         <v>29</v>
       </c>
       <c r="H206" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I206,J206,K206)</f>
         <v>2.2222</v>
       </c>
       <c r="I206" s="5">
@@ -36690,7 +36690,7 @@
         <v>30</v>
       </c>
       <c r="H207" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I207,J207,K207)</f>
         <v>2.8</v>
       </c>
       <c r="I207" s="5">
@@ -36755,7 +36755,7 @@
         <v>29</v>
       </c>
       <c r="H208" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I208,J208,K208)</f>
         <v>1.6</v>
       </c>
       <c r="I208" s="5">
@@ -36826,7 +36826,7 @@
         <v>29</v>
       </c>
       <c r="H209" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I209,J209,K209)</f>
         <v>0.84619999999999995</v>
       </c>
       <c r="I209" s="5">
@@ -36903,7 +36903,7 @@
         <v>29</v>
       </c>
       <c r="H210" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I210,J210,K210)</f>
         <v>1.25</v>
       </c>
       <c r="I210" s="5">
@@ -36982,7 +36982,7 @@
         <v>29</v>
       </c>
       <c r="H211" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I211,J211,K211)</f>
         <v>1.75</v>
       </c>
       <c r="I211" s="5">
@@ -37055,7 +37055,7 @@
         <v>29</v>
       </c>
       <c r="H212" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I212,J212,K212)</f>
         <v>0.68089999999999995</v>
       </c>
       <c r="I212" s="5">
@@ -37132,7 +37132,7 @@
         <v>29</v>
       </c>
       <c r="H213" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I213,J213,K213)</f>
         <v>3.2856999999999998</v>
       </c>
       <c r="I213" s="5">
@@ -37209,7 +37209,7 @@
         <v>29</v>
       </c>
       <c r="H214" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I214,J214,K214)</f>
         <v>4.3333000000000004</v>
       </c>
       <c r="I214" s="5">
@@ -37276,7 +37276,7 @@
         <v>29</v>
       </c>
       <c r="H215" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I215,J215,K215)</f>
         <v>2.5556000000000001</v>
       </c>
       <c r="I215" s="5">
@@ -37349,7 +37349,7 @@
         <v>29</v>
       </c>
       <c r="H216" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I216,J216,K216)</f>
         <v>2.1</v>
       </c>
       <c r="I216" s="5">
@@ -37420,7 +37420,7 @@
         <v>30</v>
       </c>
       <c r="H217" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I217,J217,K217)</f>
         <v>3.4285999999999999</v>
       </c>
       <c r="I217" s="5">
@@ -37497,7 +37497,7 @@
         <v>29</v>
       </c>
       <c r="H218" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I218,J218,K218)</f>
         <v>1.6667000000000001</v>
       </c>
       <c r="I218" s="5">
@@ -37572,7 +37572,7 @@
         <v>30</v>
       </c>
       <c r="H219" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I219,J219,K219)</f>
         <v>3</v>
       </c>
       <c r="I219" s="5">
@@ -37649,7 +37649,7 @@
         <v>29</v>
       </c>
       <c r="H220" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I220,J220,K220)</f>
         <v>2</v>
       </c>
       <c r="I220" s="5">
@@ -37728,7 +37728,7 @@
         <v>29</v>
       </c>
       <c r="H221" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I221,J221,K221)</f>
         <v>2.5556000000000001</v>
       </c>
       <c r="I221" s="5">
@@ -37805,7 +37805,7 @@
         <v>29</v>
       </c>
       <c r="H222" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I222,J222,K222)</f>
         <v>4</v>
       </c>
       <c r="I222" s="5">
@@ -37884,7 +37884,7 @@
         <v>32</v>
       </c>
       <c r="H223" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I223,J223,K223)</f>
         <v>4.75</v>
       </c>
       <c r="I223" s="5">
@@ -37953,7 +37953,7 @@
         <v>32</v>
       </c>
       <c r="H224" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I224,J224,K224)</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="I224" s="5">
@@ -38022,7 +38022,7 @@
         <v>29</v>
       </c>
       <c r="H225" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I225,J225,K225)</f>
         <v>0.8</v>
       </c>
       <c r="I225" s="5">
@@ -38101,7 +38101,7 @@
         <v>32</v>
       </c>
       <c r="H226" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I226,J226,K226)</f>
         <v>2.8889</v>
       </c>
       <c r="I226" s="5">
@@ -38172,7 +38172,7 @@
         <v>29</v>
       </c>
       <c r="H227" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I227,J227,K227)</f>
         <v>3</v>
       </c>
       <c r="I227" s="5">
@@ -38249,7 +38249,7 @@
         <v>30</v>
       </c>
       <c r="H228" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I228,J228,K228)</f>
         <v>4.75</v>
       </c>
       <c r="I228" s="5">
@@ -38328,7 +38328,7 @@
         <v>29</v>
       </c>
       <c r="H229" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I229,J229,K229)</f>
         <v>0.77780000000000005</v>
       </c>
       <c r="I229" s="5">
@@ -38405,7 +38405,7 @@
         <v>29</v>
       </c>
       <c r="H230" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I230,J230,K230)</f>
         <v>4.1111000000000004</v>
       </c>
       <c r="I230" s="5">
@@ -38482,7 +38482,7 @@
         <v>30</v>
       </c>
       <c r="H231" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I231,J231,K231)</f>
         <v>4.5</v>
       </c>
       <c r="I231" s="5">
@@ -38561,7 +38561,7 @@
         <v>29</v>
       </c>
       <c r="H232" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I232,J232,K232)</f>
         <v>1</v>
       </c>
       <c r="I232" s="5">
@@ -38638,7 +38638,7 @@
         <v>29</v>
       </c>
       <c r="H233" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I233,J233,K233)</f>
         <v>0.75</v>
       </c>
       <c r="I233" s="5">
@@ -38715,7 +38715,7 @@
         <v>29</v>
       </c>
       <c r="H234" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I234,J234,K234)</f>
         <v>1.6</v>
       </c>
       <c r="I234" s="5">
@@ -38784,7 +38784,7 @@
         <v>29</v>
       </c>
       <c r="H235" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I235,J235,K235)</f>
         <v>1.4</v>
       </c>
       <c r="I235" s="5">
@@ -38863,7 +38863,7 @@
         <v>29</v>
       </c>
       <c r="H236" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I236,J236,K236)</f>
         <v>1.4443999999999999</v>
       </c>
       <c r="I236" s="5">
@@ -38940,7 +38940,7 @@
         <v>29</v>
       </c>
       <c r="H237" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I237,J237,K237)</f>
         <v>2.75</v>
       </c>
       <c r="I237" s="5">
@@ -39017,7 +39017,7 @@
         <v>32</v>
       </c>
       <c r="H238" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I238,J238,K238)</f>
         <v>4.7142999999999997</v>
       </c>
       <c r="I238" s="5">
@@ -39082,7 +39082,7 @@
         <v>29</v>
       </c>
       <c r="H239" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I239,J239,K239)</f>
         <v>1.6</v>
       </c>
       <c r="I239" s="5">
@@ -39161,7 +39161,7 @@
         <v>29</v>
       </c>
       <c r="H240" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I240,J240,K240)</f>
         <v>1.1111</v>
       </c>
       <c r="I240" s="5">
@@ -39238,7 +39238,7 @@
         <v>29</v>
       </c>
       <c r="H241" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I241,J241,K241)</f>
         <v>3.4443999999999999</v>
       </c>
       <c r="I241" s="5">
@@ -39315,7 +39315,7 @@
         <v>30</v>
       </c>
       <c r="H242" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I242,J242,K242)</f>
         <v>3.8</v>
       </c>
       <c r="I242" s="5">
@@ -39380,7 +39380,7 @@
         <v>29</v>
       </c>
       <c r="H243" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I243,J243,K243)</f>
         <v>2.2222</v>
       </c>
       <c r="I243" s="5">
@@ -39457,7 +39457,7 @@
         <v>29</v>
       </c>
       <c r="H244" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I244,J244,K244)</f>
         <v>1.2</v>
       </c>
       <c r="I244" s="5">
@@ -39536,7 +39536,7 @@
         <v>29</v>
       </c>
       <c r="H245" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I245,J245,K245)</f>
         <v>2.375</v>
       </c>
       <c r="I245" s="5">
@@ -39607,7 +39607,7 @@
         <v>29</v>
       </c>
       <c r="H246" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I246,J246,K246)</f>
         <v>1</v>
       </c>
       <c r="I246" s="5">
@@ -39686,7 +39686,7 @@
         <v>29</v>
       </c>
       <c r="H247" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I247,J247,K247)</f>
         <v>3.625</v>
       </c>
       <c r="I247" s="5">
@@ -39765,7 +39765,7 @@
         <v>32</v>
       </c>
       <c r="H248" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I248,J248,K248)</f>
         <v>4.875</v>
       </c>
       <c r="I248" s="5">
@@ -39834,7 +39834,7 @@
         <v>29</v>
       </c>
       <c r="H249" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I249,J249,K249)</f>
         <v>1.6667000000000001</v>
       </c>
       <c r="I249" s="5">
@@ -39913,7 +39913,7 @@
         <v>29</v>
       </c>
       <c r="H250" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I250,J250,K250)</f>
         <v>0.85709999999999997</v>
       </c>
       <c r="I250" s="5">
@@ -39992,7 +39992,7 @@
         <v>29</v>
       </c>
       <c r="H251" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I251,J251,K251)</f>
         <v>2.5556000000000001</v>
       </c>
       <c r="I251" s="5">
@@ -40069,7 +40069,7 @@
         <v>30</v>
       </c>
       <c r="H252" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I252,J252,K252)</f>
         <v>3.375</v>
       </c>
       <c r="I252" s="5">
@@ -40148,7 +40148,7 @@
         <v>29</v>
       </c>
       <c r="H253" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I253,J253,K253)</f>
         <v>2.1111</v>
       </c>
       <c r="I253" s="5">
@@ -40225,7 +40225,7 @@
         <v>32</v>
       </c>
       <c r="H254" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I254,J254,K254)</f>
         <v>5</v>
       </c>
       <c r="I254" s="5">
@@ -40298,7 +40298,7 @@
         <v>30</v>
       </c>
       <c r="H255" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I255,J255,K255)</f>
         <v>2.8889</v>
       </c>
       <c r="I255" s="5">
@@ -40377,7 +40377,7 @@
         <v>30</v>
       </c>
       <c r="H256" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I256,J256,K256)</f>
         <v>2.5</v>
       </c>
       <c r="I256" s="5">
@@ -40454,7 +40454,7 @@
         <v>29</v>
       </c>
       <c r="H257" s="5">
-        <f t="shared" si="3"/>
+        <f>MAX(I257,J257,K257)</f>
         <v>3.7143000000000002</v>
       </c>
       <c r="I257" s="5">
@@ -40531,7 +40531,7 @@
         <v>30</v>
       </c>
       <c r="H258" s="5">
-        <f t="shared" ref="H258:H321" si="4">MAX(I258,J258,K258)</f>
+        <f>MAX(I258,J258,K258)</f>
         <v>1.3332999999999999</v>
       </c>
       <c r="I258" s="5">
@@ -40608,7 +40608,7 @@
         <v>29</v>
       </c>
       <c r="H259" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I259,J259,K259)</f>
         <v>1</v>
       </c>
       <c r="I259" s="5">
@@ -40687,7 +40687,7 @@
         <v>29</v>
       </c>
       <c r="H260" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I260,J260,K260)</f>
         <v>1.3332999999999999</v>
       </c>
       <c r="I260" s="5">
@@ -40764,7 +40764,7 @@
         <v>32</v>
       </c>
       <c r="H261" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I261,J261,K261)</f>
         <v>2.5714000000000001</v>
       </c>
       <c r="I261" s="5">
@@ -40841,7 +40841,7 @@
         <v>29</v>
       </c>
       <c r="H262" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I262,J262,K262)</f>
         <v>1.6667000000000001</v>
       </c>
       <c r="I262" s="5">
@@ -40916,7 +40916,7 @@
         <v>30</v>
       </c>
       <c r="H263" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I263,J263,K263)</f>
         <v>3.5</v>
       </c>
       <c r="I263" s="5">
@@ -40995,7 +40995,7 @@
         <v>29</v>
       </c>
       <c r="H264" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I264,J264,K264)</f>
         <v>3.2</v>
       </c>
       <c r="I264" s="5">
@@ -41074,7 +41074,7 @@
         <v>29</v>
       </c>
       <c r="H265" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I265,J265,K265)</f>
         <v>3.5556000000000001</v>
       </c>
       <c r="I265" s="5">
@@ -41151,7 +41151,7 @@
         <v>29</v>
       </c>
       <c r="H266" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I266,J266,K266)</f>
         <v>3.2</v>
       </c>
       <c r="I266" s="5">
@@ -41228,7 +41228,7 @@
         <v>29</v>
       </c>
       <c r="H267" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I267,J267,K267)</f>
         <v>2.4285999999999999</v>
       </c>
       <c r="I267" s="5">
@@ -41305,7 +41305,7 @@
         <v>29</v>
       </c>
       <c r="H268" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I268,J268,K268)</f>
         <v>2.6</v>
       </c>
       <c r="I268" s="5">
@@ -41384,7 +41384,7 @@
         <v>29</v>
       </c>
       <c r="H269" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I269,J269,K269)</f>
         <v>1.6</v>
       </c>
       <c r="I269" s="5">
@@ -41463,7 +41463,7 @@
         <v>32</v>
       </c>
       <c r="H270" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I270,J270,K270)</f>
         <v>5</v>
       </c>
       <c r="I270" s="5">
@@ -41540,7 +41540,7 @@
         <v>29</v>
       </c>
       <c r="H271" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I271,J271,K271)</f>
         <v>4.5</v>
       </c>
       <c r="I271" s="5">
@@ -41611,7 +41611,7 @@
         <v>29</v>
       </c>
       <c r="H272" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I272,J272,K272)</f>
         <v>2.6</v>
       </c>
       <c r="I272" s="5">
@@ -41688,7 +41688,7 @@
         <v>29</v>
       </c>
       <c r="H273" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I273,J273,K273)</f>
         <v>2.1429</v>
       </c>
       <c r="I273" s="5">
@@ -41765,7 +41765,7 @@
         <v>29</v>
       </c>
       <c r="H274" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I274,J274,K274)</f>
         <v>2.6667000000000001</v>
       </c>
       <c r="I274" s="5">
@@ -41842,7 +41842,7 @@
         <v>29</v>
       </c>
       <c r="H275" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I275,J275,K275)</f>
         <v>1.2857000000000001</v>
       </c>
       <c r="I275" s="5">
@@ -41919,7 +41919,7 @@
         <v>29</v>
       </c>
       <c r="H276" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I276,J276,K276)</f>
         <v>2</v>
       </c>
       <c r="I276" s="5">
@@ -41996,7 +41996,7 @@
         <v>29</v>
       </c>
       <c r="H277" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I277,J277,K277)</f>
         <v>3.2856999999999998</v>
       </c>
       <c r="I277" s="5">
@@ -42073,7 +42073,7 @@
         <v>29</v>
       </c>
       <c r="H278" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I278,J278,K278)</f>
         <v>3.2</v>
       </c>
       <c r="I278" s="5">
@@ -42136,7 +42136,7 @@
         <v>29</v>
       </c>
       <c r="H279" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I279,J279,K279)</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="I279" s="5">
@@ -42215,7 +42215,7 @@
         <v>29</v>
       </c>
       <c r="H280" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I280,J280,K280)</f>
         <v>2.6667000000000001</v>
       </c>
       <c r="I280" s="5">
@@ -42292,7 +42292,7 @@
         <v>29</v>
       </c>
       <c r="H281" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I281,J281,K281)</f>
         <v>3.2222</v>
       </c>
       <c r="I281" s="5">
@@ -42369,7 +42369,7 @@
         <v>29</v>
       </c>
       <c r="H282" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I282,J282,K282)</f>
         <v>3.5556000000000001</v>
       </c>
       <c r="I282" s="5">
@@ -42446,7 +42446,7 @@
         <v>29</v>
       </c>
       <c r="H283" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I283,J283,K283)</f>
         <v>2.6667000000000001</v>
       </c>
       <c r="I283" s="5">
@@ -42523,7 +42523,7 @@
         <v>29</v>
       </c>
       <c r="H284" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I284,J284,K284)</f>
         <v>2.7778</v>
       </c>
       <c r="I284" s="5">
@@ -42600,7 +42600,7 @@
         <v>29</v>
       </c>
       <c r="H285" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I285,J285,K285)</f>
         <v>2.8571</v>
       </c>
       <c r="I285" s="5">
@@ -42677,7 +42677,7 @@
         <v>29</v>
       </c>
       <c r="H286" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I286,J286,K286)</f>
         <v>3.6667000000000001</v>
       </c>
       <c r="I286" s="5">
@@ -42754,7 +42754,7 @@
         <v>29</v>
       </c>
       <c r="H287" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I287,J287,K287)</f>
         <v>1.5556000000000001</v>
       </c>
       <c r="I287" s="5">
@@ -42831,7 +42831,7 @@
         <v>29</v>
       </c>
       <c r="H288" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I288,J288,K288)</f>
         <v>2.2222</v>
       </c>
       <c r="I288" s="5">
@@ -42908,7 +42908,7 @@
         <v>32</v>
       </c>
       <c r="H289" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I289,J289,K289)</f>
         <v>2.7778</v>
       </c>
       <c r="I289" s="5">
@@ -42977,7 +42977,7 @@
         <v>29</v>
       </c>
       <c r="H290" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I290,J290,K290)</f>
         <v>3.1</v>
       </c>
       <c r="I290" s="5">
@@ -43048,7 +43048,7 @@
         <v>30</v>
       </c>
       <c r="H291" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I291,J291,K291)</f>
         <v>3</v>
       </c>
       <c r="I291" s="5">
@@ -43117,7 +43117,7 @@
         <v>32</v>
       </c>
       <c r="H292" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I292,J292,K292)</f>
         <v>2.2222</v>
       </c>
       <c r="I292" s="5">
@@ -43186,7 +43186,7 @@
         <v>29</v>
       </c>
       <c r="H293" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I293,J293,K293)</f>
         <v>3.2222</v>
       </c>
       <c r="I293" s="5">
@@ -43263,7 +43263,7 @@
         <v>29</v>
       </c>
       <c r="H294" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I294,J294,K294)</f>
         <v>1.4443999999999999</v>
       </c>
       <c r="I294" s="5">
@@ -43340,7 +43340,7 @@
         <v>29</v>
       </c>
       <c r="H295" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I295,J295,K295)</f>
         <v>3.25</v>
       </c>
       <c r="I295" s="5">
@@ -43405,7 +43405,7 @@
         <v>29</v>
       </c>
       <c r="H296" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I296,J296,K296)</f>
         <v>3.8332999999999999</v>
       </c>
       <c r="I296" s="5">
@@ -43474,7 +43474,7 @@
         <v>29</v>
       </c>
       <c r="H297" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I297,J297,K297)</f>
         <v>1.8889</v>
       </c>
       <c r="I297" s="5">
@@ -43551,7 +43551,7 @@
         <v>29</v>
       </c>
       <c r="H298" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I298,J298,K298)</f>
         <v>0.75</v>
       </c>
       <c r="I298" s="5">
@@ -43616,7 +43616,7 @@
         <v>30</v>
       </c>
       <c r="H299" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I299,J299,K299)</f>
         <v>4.1429</v>
       </c>
       <c r="I299" s="5">
@@ -43693,7 +43693,7 @@
         <v>29</v>
       </c>
       <c r="H300" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I300,J300,K300)</f>
         <v>1.5556000000000001</v>
       </c>
       <c r="I300" s="5">
@@ -43770,7 +43770,7 @@
         <v>32</v>
       </c>
       <c r="H301" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I301,J301,K301)</f>
         <v>3.2222</v>
       </c>
       <c r="I301" s="5">
@@ -43847,7 +43847,7 @@
         <v>30</v>
       </c>
       <c r="H302" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I302,J302,K302)</f>
         <v>2</v>
       </c>
       <c r="I302" s="5">
@@ -43924,7 +43924,7 @@
         <v>29</v>
       </c>
       <c r="H303" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I303,J303,K303)</f>
         <v>2</v>
       </c>
       <c r="I303" s="5">
@@ -44001,7 +44001,7 @@
         <v>30</v>
       </c>
       <c r="H304" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I304,J304,K304)</f>
         <v>4.75</v>
       </c>
       <c r="I304" s="5">
@@ -44070,7 +44070,7 @@
         <v>29</v>
       </c>
       <c r="H305" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I305,J305,K305)</f>
         <v>1.2</v>
       </c>
       <c r="I305" s="5">
@@ -44149,7 +44149,7 @@
         <v>29</v>
       </c>
       <c r="H306" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I306,J306,K306)</f>
         <v>3.2856999999999998</v>
       </c>
       <c r="I306" s="5">
@@ -44226,7 +44226,7 @@
         <v>29</v>
       </c>
       <c r="H307" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I307,J307,K307)</f>
         <v>3</v>
       </c>
       <c r="I307" s="5">
@@ -44303,7 +44303,7 @@
         <v>29</v>
       </c>
       <c r="H308" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I308,J308,K308)</f>
         <v>0.71430000000000005</v>
       </c>
       <c r="I308" s="5">
@@ -44368,7 +44368,7 @@
         <v>30</v>
       </c>
       <c r="H309" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I309,J309,K309)</f>
         <v>3.8</v>
       </c>
       <c r="I309" s="5">
@@ -44447,7 +44447,7 @@
         <v>29</v>
       </c>
       <c r="H310" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I310,J310,K310)</f>
         <v>3.1111</v>
       </c>
       <c r="I310" s="5">
@@ -44524,7 +44524,7 @@
         <v>30</v>
       </c>
       <c r="H311" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I311,J311,K311)</f>
         <v>3.6667000000000001</v>
       </c>
       <c r="I311" s="5">
@@ -44601,7 +44601,7 @@
         <v>32</v>
       </c>
       <c r="H312" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I312,J312,K312)</f>
         <v>4.375</v>
       </c>
       <c r="I312" s="5">
@@ -44668,7 +44668,7 @@
         <v>29</v>
       </c>
       <c r="H313" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I313,J313,K313)</f>
         <v>2.625</v>
       </c>
       <c r="I313" s="5">
@@ -44747,7 +44747,7 @@
         <v>29</v>
       </c>
       <c r="H314" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I314,J314,K314)</f>
         <v>0.77780000000000005</v>
       </c>
       <c r="I314" s="5">
@@ -44826,7 +44826,7 @@
         <v>30</v>
       </c>
       <c r="H315" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I315,J315,K315)</f>
         <v>4.625</v>
       </c>
       <c r="I315" s="5">
@@ -44905,7 +44905,7 @@
         <v>29</v>
       </c>
       <c r="H316" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I316,J316,K316)</f>
         <v>2.3332999999999999</v>
       </c>
       <c r="I316" s="5">
@@ -44982,7 +44982,7 @@
         <v>32</v>
       </c>
       <c r="H317" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I317,J317,K317)</f>
         <v>4</v>
       </c>
       <c r="I317" s="5">
@@ -45051,7 +45051,7 @@
         <v>29</v>
       </c>
       <c r="H318" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I318,J318,K318)</f>
         <v>1.2</v>
       </c>
       <c r="I318" s="5">
@@ -45130,7 +45130,7 @@
         <v>32</v>
       </c>
       <c r="H319" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I319,J319,K319)</f>
         <v>4.5</v>
       </c>
       <c r="I319" s="5">
@@ -45193,7 +45193,7 @@
         <v>30</v>
       </c>
       <c r="H320" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I320,J320,K320)</f>
         <v>2.4</v>
       </c>
       <c r="I320" s="5">
@@ -45272,7 +45272,7 @@
         <v>32</v>
       </c>
       <c r="H321" s="5">
-        <f t="shared" si="4"/>
+        <f>MAX(I321,J321,K321)</f>
         <v>4.5</v>
       </c>
       <c r="I321" s="5">
@@ -45341,7 +45341,7 @@
         <v>30</v>
       </c>
       <c r="H322" s="5">
-        <f t="shared" ref="H322:H385" si="5">MAX(I322,J322,K322)</f>
+        <f>MAX(I322,J322,K322)</f>
         <v>4.6666999999999996</v>
       </c>
       <c r="I322" s="5">
@@ -45418,7 +45418,7 @@
         <v>30</v>
       </c>
       <c r="H323" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I323,J323,K323)</f>
         <v>3</v>
       </c>
       <c r="I323" s="5">
@@ -45497,7 +45497,7 @@
         <v>29</v>
       </c>
       <c r="H324" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I324,J324,K324)</f>
         <v>3.1111</v>
       </c>
       <c r="I324" s="5">
@@ -45574,7 +45574,7 @@
         <v>32</v>
       </c>
       <c r="H325" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I325,J325,K325)</f>
         <v>4.25</v>
       </c>
       <c r="I325" s="5">
@@ -45639,7 +45639,7 @@
         <v>29</v>
       </c>
       <c r="H326" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I326,J326,K326)</f>
         <v>2.1111</v>
       </c>
       <c r="I326" s="5">
@@ -45716,7 +45716,7 @@
         <v>29</v>
       </c>
       <c r="H327" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I327,J327,K327)</f>
         <v>2.7778</v>
       </c>
       <c r="I327" s="5">
@@ -45789,7 +45789,7 @@
         <v>29</v>
       </c>
       <c r="H328" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I328,J328,K328)</f>
         <v>1.9</v>
       </c>
       <c r="I328" s="5">
@@ -45868,7 +45868,7 @@
         <v>32</v>
       </c>
       <c r="H329" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I329,J329,K329)</f>
         <v>4.1111000000000004</v>
       </c>
       <c r="I329" s="5">
@@ -45945,7 +45945,7 @@
         <v>29</v>
       </c>
       <c r="H330" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I330,J330,K330)</f>
         <v>1.5713999999999999</v>
       </c>
       <c r="I330" s="5">
@@ -46022,7 +46022,7 @@
         <v>29</v>
       </c>
       <c r="H331" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I331,J331,K331)</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="I331" s="5">
@@ -46101,7 +46101,7 @@
         <v>30</v>
       </c>
       <c r="H332" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I332,J332,K332)</f>
         <v>3</v>
       </c>
       <c r="I332" s="5">
@@ -46178,7 +46178,7 @@
         <v>29</v>
       </c>
       <c r="H333" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I333,J333,K333)</f>
         <v>1.75</v>
       </c>
       <c r="I333" s="5">
@@ -46257,7 +46257,7 @@
         <v>29</v>
       </c>
       <c r="H334" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I334,J334,K334)</f>
         <v>2</v>
       </c>
       <c r="I334" s="5">
@@ -46334,7 +46334,7 @@
         <v>30</v>
       </c>
       <c r="H335" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I335,J335,K335)</f>
         <v>4.2</v>
       </c>
       <c r="I335" s="5">
@@ -46413,7 +46413,7 @@
         <v>32</v>
       </c>
       <c r="H336" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I336,J336,K336)</f>
         <v>5</v>
       </c>
       <c r="I336" s="5">
@@ -46482,7 +46482,7 @@
         <v>32</v>
       </c>
       <c r="H337" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I337,J337,K337)</f>
         <v>2.2222</v>
       </c>
       <c r="I337" s="5">
@@ -46557,7 +46557,7 @@
         <v>32</v>
       </c>
       <c r="H338" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I338,J338,K338)</f>
         <v>4.875</v>
       </c>
       <c r="I338" s="5">
@@ -46626,7 +46626,7 @@
         <v>32</v>
       </c>
       <c r="H339" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I339,J339,K339)</f>
         <v>2.6667000000000001</v>
       </c>
       <c r="I339" s="5">
@@ -46695,7 +46695,7 @@
         <v>29</v>
       </c>
       <c r="H340" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I340,J340,K340)</f>
         <v>2.2222</v>
       </c>
       <c r="I340" s="5">
@@ -46766,7 +46766,7 @@
         <v>30</v>
       </c>
       <c r="H341" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I341,J341,K341)</f>
         <v>4</v>
       </c>
       <c r="I341" s="5">
@@ -46843,7 +46843,7 @@
         <v>29</v>
       </c>
       <c r="H342" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I342,J342,K342)</f>
         <v>2.8889</v>
       </c>
       <c r="I342" s="5">
@@ -46920,7 +46920,7 @@
         <v>29</v>
       </c>
       <c r="H343" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I343,J343,K343)</f>
         <v>1.5</v>
       </c>
       <c r="I343" s="5">
@@ -46997,7 +46997,7 @@
         <v>29</v>
       </c>
       <c r="H344" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I344,J344,K344)</f>
         <v>1.4</v>
       </c>
       <c r="I344" s="5">
@@ -47076,7 +47076,7 @@
         <v>32</v>
       </c>
       <c r="H345" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I345,J345,K345)</f>
         <v>4.8</v>
       </c>
       <c r="I345" s="5">
@@ -47155,7 +47155,7 @@
         <v>29</v>
       </c>
       <c r="H346" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I346,J346,K346)</f>
         <v>2.7143000000000002</v>
       </c>
       <c r="I346" s="5">
@@ -47232,7 +47232,7 @@
         <v>29</v>
       </c>
       <c r="H347" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I347,J347,K347)</f>
         <v>1.4</v>
       </c>
       <c r="I347" s="5">
@@ -47311,7 +47311,7 @@
         <v>29</v>
       </c>
       <c r="H348" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I348,J348,K348)</f>
         <v>1.875</v>
       </c>
       <c r="I348" s="5">
@@ -47388,7 +47388,7 @@
         <v>32</v>
       </c>
       <c r="H349" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I349,J349,K349)</f>
         <v>1.4</v>
       </c>
       <c r="I349" s="5">
@@ -47465,7 +47465,7 @@
         <v>32</v>
       </c>
       <c r="H350" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I350,J350,K350)</f>
         <v>4.125</v>
       </c>
       <c r="I350" s="5">
@@ -47544,7 +47544,7 @@
         <v>29</v>
       </c>
       <c r="H351" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I351,J351,K351)</f>
         <v>1.3332999999999999</v>
       </c>
       <c r="I351" s="5">
@@ -47623,7 +47623,7 @@
         <v>29</v>
       </c>
       <c r="H352" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I352,J352,K352)</f>
         <v>1.875</v>
       </c>
       <c r="I352" s="5">
@@ -47688,7 +47688,7 @@
         <v>32</v>
       </c>
       <c r="H353" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I353,J353,K353)</f>
         <v>3.1429</v>
       </c>
       <c r="I353" s="5">
@@ -47765,7 +47765,7 @@
         <v>29</v>
       </c>
       <c r="H354" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I354,J354,K354)</f>
         <v>1.375</v>
       </c>
       <c r="I354" s="5">
@@ -47844,7 +47844,7 @@
         <v>29</v>
       </c>
       <c r="H355" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I355,J355,K355)</f>
         <v>1</v>
       </c>
       <c r="I355" s="5">
@@ -47923,7 +47923,7 @@
         <v>29</v>
       </c>
       <c r="H356" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I356,J356,K356)</f>
         <v>2.4443999999999999</v>
       </c>
       <c r="I356" s="5">
@@ -48000,7 +48000,7 @@
         <v>29</v>
       </c>
       <c r="H357" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I357,J357,K357)</f>
         <v>4</v>
       </c>
       <c r="I357" s="5">
@@ -48077,7 +48077,7 @@
         <v>29</v>
       </c>
       <c r="H358" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I358,J358,K358)</f>
         <v>3.1</v>
       </c>
       <c r="I358" s="5">
@@ -48156,7 +48156,7 @@
         <v>29</v>
       </c>
       <c r="H359" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I359,J359,K359)</f>
         <v>2.625</v>
       </c>
       <c r="I359" s="5">
@@ -48235,7 +48235,7 @@
         <v>29</v>
       </c>
       <c r="H360" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I360,J360,K360)</f>
         <v>2.3332999999999999</v>
       </c>
       <c r="I360" s="5">
@@ -48312,7 +48312,7 @@
         <v>29</v>
       </c>
       <c r="H361" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I361,J361,K361)</f>
         <v>3.8889</v>
       </c>
       <c r="I361" s="5">
@@ -48389,7 +48389,7 @@
         <v>29</v>
       </c>
       <c r="H362" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I362,J362,K362)</f>
         <v>2.25</v>
       </c>
       <c r="I362" s="5">
@@ -48468,7 +48468,7 @@
         <v>29</v>
       </c>
       <c r="H363" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I363,J363,K363)</f>
         <v>1</v>
       </c>
       <c r="I363" s="5">
@@ -48547,7 +48547,7 @@
         <v>29</v>
       </c>
       <c r="H364" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I364,J364,K364)</f>
         <v>3.4285999999999999</v>
       </c>
       <c r="I364" s="5">
@@ -48624,7 +48624,7 @@
         <v>29</v>
       </c>
       <c r="H365" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I365,J365,K365)</f>
         <v>2.3332999999999999</v>
       </c>
       <c r="I365" s="5">
@@ -48701,7 +48701,7 @@
         <v>29</v>
       </c>
       <c r="H366" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I366,J366,K366)</f>
         <v>2.1429</v>
       </c>
       <c r="I366" s="5">
@@ -48778,7 +48778,7 @@
         <v>29</v>
       </c>
       <c r="H367" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I367,J367,K367)</f>
         <v>1.4</v>
       </c>
       <c r="I367" s="5">
@@ -48857,7 +48857,7 @@
         <v>29</v>
       </c>
       <c r="H368" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I368,J368,K368)</f>
         <v>1.5556000000000001</v>
       </c>
       <c r="I368" s="5">
@@ -48936,7 +48936,7 @@
         <v>32</v>
       </c>
       <c r="H369" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I369,J369,K369)</f>
         <v>4.8</v>
       </c>
       <c r="I369" s="5">
@@ -49015,7 +49015,7 @@
         <v>32</v>
       </c>
       <c r="H370" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I370,J370,K370)</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="I370" s="5">
@@ -49094,7 +49094,7 @@
         <v>29</v>
       </c>
       <c r="H371" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I371,J371,K371)</f>
         <v>2.3332999999999999</v>
       </c>
       <c r="I371" s="5">
@@ -49171,7 +49171,7 @@
         <v>29</v>
       </c>
       <c r="H372" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I372,J372,K372)</f>
         <v>1.2857000000000001</v>
       </c>
       <c r="I372" s="5">
@@ -49248,7 +49248,7 @@
         <v>29</v>
       </c>
       <c r="H373" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I373,J373,K373)</f>
         <v>3.8889</v>
       </c>
       <c r="I373" s="5">
@@ -49319,7 +49319,7 @@
         <v>29</v>
       </c>
       <c r="H374" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I374,J374,K374)</f>
         <v>3.3332999999999999</v>
       </c>
       <c r="I374" s="5">
@@ -49396,7 +49396,7 @@
         <v>29</v>
       </c>
       <c r="H375" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I375,J375,K375)</f>
         <v>3.25</v>
       </c>
       <c r="I375" s="5">
@@ -49475,7 +49475,7 @@
         <v>29</v>
       </c>
       <c r="H376" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I376,J376,K376)</f>
         <v>1</v>
       </c>
       <c r="I376" s="5">
@@ -49552,7 +49552,7 @@
         <v>30</v>
       </c>
       <c r="H377" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I377,J377,K377)</f>
         <v>4.25</v>
       </c>
       <c r="I377" s="5">
@@ -49631,7 +49631,7 @@
         <v>29</v>
       </c>
       <c r="H378" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I378,J378,K378)</f>
         <v>0.83330000000000004</v>
       </c>
       <c r="I378" s="5">
@@ -49708,7 +49708,7 @@
         <v>29</v>
       </c>
       <c r="H379" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I379,J379,K379)</f>
         <v>2.4443999999999999</v>
       </c>
       <c r="I379" s="5">
@@ -49785,7 +49785,7 @@
         <v>29</v>
       </c>
       <c r="H380" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I380,J380,K380)</f>
         <v>2.3332999999999999</v>
       </c>
       <c r="I380" s="5">
@@ -49862,7 +49862,7 @@
         <v>29</v>
       </c>
       <c r="H381" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I381,J381,K381)</f>
         <v>3</v>
       </c>
       <c r="I381" s="5">
@@ -49939,7 +49939,7 @@
         <v>30</v>
       </c>
       <c r="H382" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I382,J382,K382)</f>
         <v>4.1111000000000004</v>
       </c>
       <c r="I382" s="5">
@@ -50016,7 +50016,7 @@
         <v>29</v>
       </c>
       <c r="H383" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I383,J383,K383)</f>
         <v>2.5714000000000001</v>
       </c>
       <c r="I383" s="5">
@@ -50093,7 +50093,7 @@
         <v>29</v>
       </c>
       <c r="H384" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I384,J384,K384)</f>
         <v>3</v>
       </c>
       <c r="I384" s="5">
@@ -50170,7 +50170,7 @@
         <v>32</v>
       </c>
       <c r="H385" s="5">
-        <f t="shared" si="5"/>
+        <f>MAX(I385,J385,K385)</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="I385" s="5">
@@ -50247,7 +50247,7 @@
         <v>29</v>
       </c>
       <c r="H386" s="5">
-        <f t="shared" ref="H386:H449" si="6">MAX(I386,J386,K386)</f>
+        <f>MAX(I386,J386,K386)</f>
         <v>4</v>
       </c>
       <c r="I386" s="5">
@@ -50326,7 +50326,7 @@
         <v>29</v>
       </c>
       <c r="H387" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I387,J387,K387)</f>
         <v>2</v>
       </c>
       <c r="I387" s="5">
@@ -50403,7 +50403,7 @@
         <v>32</v>
       </c>
       <c r="H388" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I388,J388,K388)</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="I388" s="5">
@@ -50466,7 +50466,7 @@
         <v>29</v>
       </c>
       <c r="H389" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I389,J389,K389)</f>
         <v>2</v>
       </c>
       <c r="I389" s="5">
@@ -50545,7 +50545,7 @@
         <v>29</v>
       </c>
       <c r="H390" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I390,J390,K390)</f>
         <v>2.2222</v>
       </c>
       <c r="I390" s="5">
@@ -50622,7 +50622,7 @@
         <v>29</v>
       </c>
       <c r="H391" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I391,J391,K391)</f>
         <v>1.5556000000000001</v>
       </c>
       <c r="I391" s="5">
@@ -50699,7 +50699,7 @@
         <v>29</v>
       </c>
       <c r="H392" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I392,J392,K392)</f>
         <v>1.7778</v>
       </c>
       <c r="I392" s="5">
@@ -50776,7 +50776,7 @@
         <v>29</v>
       </c>
       <c r="H393" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I393,J393,K393)</f>
         <v>2.1429</v>
       </c>
       <c r="I393" s="5">
@@ -50853,7 +50853,7 @@
         <v>29</v>
       </c>
       <c r="H394" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I394,J394,K394)</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="I394" s="5">
@@ -50932,7 +50932,7 @@
         <v>29</v>
       </c>
       <c r="H395" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I395,J395,K395)</f>
         <v>2.8</v>
       </c>
       <c r="I395" s="5">
@@ -51011,7 +51011,7 @@
         <v>29</v>
       </c>
       <c r="H396" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I396,J396,K396)</f>
         <v>1.9</v>
       </c>
       <c r="I396" s="5">
@@ -51090,7 +51090,7 @@
         <v>29</v>
       </c>
       <c r="H397" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I397,J397,K397)</f>
         <v>2.1429</v>
       </c>
       <c r="I397" s="5">
@@ -51167,7 +51167,7 @@
         <v>32</v>
       </c>
       <c r="H398" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I398,J398,K398)</f>
         <v>4.8</v>
       </c>
       <c r="I398" s="5">
@@ -51236,7 +51236,7 @@
         <v>29</v>
       </c>
       <c r="H399" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I399,J399,K399)</f>
         <v>3.6667000000000001</v>
       </c>
       <c r="I399" s="5">
@@ -51313,7 +51313,7 @@
         <v>32</v>
       </c>
       <c r="H400" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I400,J400,K400)</f>
         <v>4</v>
       </c>
       <c r="I400" s="5">
@@ -51384,7 +51384,7 @@
         <v>29</v>
       </c>
       <c r="H401" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I401,J401,K401)</f>
         <v>2.5</v>
       </c>
       <c r="I401" s="5">
@@ -51463,7 +51463,7 @@
         <v>32</v>
       </c>
       <c r="H402" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I402,J402,K402)</f>
         <v>4</v>
       </c>
       <c r="I402" s="5">
@@ -51528,7 +51528,7 @@
         <v>29</v>
       </c>
       <c r="H403" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I403,J403,K403)</f>
         <v>2.625</v>
       </c>
       <c r="I403" s="5">
@@ -51591,7 +51591,7 @@
         <v>29</v>
       </c>
       <c r="H404" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I404,J404,K404)</f>
         <v>1.6</v>
       </c>
       <c r="I404" s="5">
@@ -51668,7 +51668,7 @@
         <v>32</v>
       </c>
       <c r="H405" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I405,J405,K405)</f>
         <v>4.8888999999999996</v>
       </c>
       <c r="I405" s="5">
@@ -51745,7 +51745,7 @@
         <v>32</v>
       </c>
       <c r="H406" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I406,J406,K406)</f>
         <v>2.2222</v>
       </c>
       <c r="I406" s="5">
@@ -51822,7 +51822,7 @@
         <v>29</v>
       </c>
       <c r="H407" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I407,J407,K407)</f>
         <v>2.1111</v>
       </c>
       <c r="I407" s="5">
@@ -51899,7 +51899,7 @@
         <v>29</v>
       </c>
       <c r="H408" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I408,J408,K408)</f>
         <v>1</v>
       </c>
       <c r="I408" s="5">
@@ -51962,7 +51962,7 @@
         <v>30</v>
       </c>
       <c r="H409" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I409,J409,K409)</f>
         <v>4.375</v>
       </c>
       <c r="I409" s="5">
@@ -52041,7 +52041,7 @@
         <v>29</v>
       </c>
       <c r="H410" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I410,J410,K410)</f>
         <v>3</v>
       </c>
       <c r="I410" s="5">
@@ -52106,7 +52106,7 @@
         <v>29</v>
       </c>
       <c r="H411" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I411,J411,K411)</f>
         <v>1.6</v>
       </c>
       <c r="I411" s="5">
@@ -52185,7 +52185,7 @@
         <v>29</v>
       </c>
       <c r="H412" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I412,J412,K412)</f>
         <v>2.2222</v>
       </c>
       <c r="I412" s="5">
@@ -52262,7 +52262,7 @@
         <v>29</v>
       </c>
       <c r="H413" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I413,J413,K413)</f>
         <v>2.1111</v>
       </c>
       <c r="I413" s="5">
@@ -52339,7 +52339,7 @@
         <v>32</v>
       </c>
       <c r="H414" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I414,J414,K414)</f>
         <v>1.4443999999999999</v>
       </c>
       <c r="I414" s="5">
@@ -52416,7 +52416,7 @@
         <v>30</v>
       </c>
       <c r="H415" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I415,J415,K415)</f>
         <v>4.5713999999999997</v>
       </c>
       <c r="I415" s="5">
@@ -52493,7 +52493,7 @@
         <v>29</v>
       </c>
       <c r="H416" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I416,J416,K416)</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="I416" s="5">
@@ -52570,7 +52570,7 @@
         <v>29</v>
       </c>
       <c r="H417" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I417,J417,K417)</f>
         <v>2.5556000000000001</v>
       </c>
       <c r="I417" s="5">
@@ -52641,7 +52641,7 @@
         <v>29</v>
       </c>
       <c r="H418" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I418,J418,K418)</f>
         <v>1.2857000000000001</v>
       </c>
       <c r="I418" s="5">
@@ -52718,7 +52718,7 @@
         <v>32</v>
       </c>
       <c r="H419" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I419,J419,K419)</f>
         <v>3.4285999999999999</v>
       </c>
       <c r="I419" s="5">
@@ -52795,7 +52795,7 @@
         <v>29</v>
       </c>
       <c r="H420" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I420,J420,K420)</f>
         <v>1.1429</v>
       </c>
       <c r="I420" s="5">
@@ -52872,7 +52872,7 @@
         <v>29</v>
       </c>
       <c r="H421" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I421,J421,K421)</f>
         <v>3.7143000000000002</v>
       </c>
       <c r="I421" s="5">
@@ -52949,7 +52949,7 @@
         <v>29</v>
       </c>
       <c r="H422" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I422,J422,K422)</f>
         <v>2.6</v>
       </c>
       <c r="I422" s="5">
@@ -53020,7 +53020,7 @@
         <v>29</v>
       </c>
       <c r="H423" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I423,J423,K423)</f>
         <v>1</v>
       </c>
       <c r="I423" s="5">
@@ -53085,7 +53085,7 @@
         <v>30</v>
       </c>
       <c r="H424" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I424,J424,K424)</f>
         <v>2.6667000000000001</v>
       </c>
       <c r="I424" s="5">
@@ -53156,7 +53156,7 @@
         <v>29</v>
       </c>
       <c r="H425" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I425,J425,K425)</f>
         <v>1.8</v>
       </c>
       <c r="I425" s="5">
@@ -53231,7 +53231,7 @@
         <v>29</v>
       </c>
       <c r="H426" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I426,J426,K426)</f>
         <v>0.57140000000000002</v>
       </c>
       <c r="I426" s="5">
@@ -53308,7 +53308,7 @@
         <v>29</v>
       </c>
       <c r="H427" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I427,J427,K427)</f>
         <v>2.25</v>
       </c>
       <c r="I427" s="5">
@@ -53385,7 +53385,7 @@
         <v>29</v>
       </c>
       <c r="H428" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I428,J428,K428)</f>
         <v>3.7778</v>
       </c>
       <c r="I428" s="5">
@@ -53462,7 +53462,7 @@
         <v>29</v>
       </c>
       <c r="H429" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I429,J429,K429)</f>
         <v>2.4285999999999999</v>
       </c>
       <c r="I429" s="5">
@@ -53539,7 +53539,7 @@
         <v>29</v>
       </c>
       <c r="H430" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I430,J430,K430)</f>
         <v>1.5556000000000001</v>
       </c>
       <c r="I430" s="5">
@@ -53616,7 +53616,7 @@
         <v>29</v>
       </c>
       <c r="H431" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I431,J431,K431)</f>
         <v>3</v>
       </c>
       <c r="I431" s="5">
@@ -53695,7 +53695,7 @@
         <v>29</v>
       </c>
       <c r="H432" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I432,J432,K432)</f>
         <v>3.25</v>
       </c>
       <c r="I432" s="5">
@@ -53774,7 +53774,7 @@
         <v>29</v>
       </c>
       <c r="H433" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I433,J433,K433)</f>
         <v>1.25</v>
       </c>
       <c r="I433" s="5">
@@ -53851,7 +53851,7 @@
         <v>29</v>
       </c>
       <c r="H434" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I434,J434,K434)</f>
         <v>2.625</v>
       </c>
       <c r="I434" s="5">
@@ -53928,7 +53928,7 @@
         <v>29</v>
       </c>
       <c r="H435" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I435,J435,K435)</f>
         <v>1</v>
       </c>
       <c r="I435" s="5">
@@ -53993,7 +53993,7 @@
         <v>29</v>
       </c>
       <c r="H436" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I436,J436,K436)</f>
         <v>2.4443999999999999</v>
       </c>
       <c r="I436" s="5">
@@ -54070,7 +54070,7 @@
         <v>29</v>
       </c>
       <c r="H437" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I437,J437,K437)</f>
         <v>2.1111</v>
       </c>
       <c r="I437" s="5">
@@ -54147,7 +54147,7 @@
         <v>29</v>
       </c>
       <c r="H438" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I438,J438,K438)</f>
         <v>1.4286000000000001</v>
       </c>
       <c r="I438" s="5">
@@ -54224,7 +54224,7 @@
         <v>32</v>
       </c>
       <c r="H439" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I439,J439,K439)</f>
         <v>5</v>
       </c>
       <c r="I439" s="5">
@@ -54303,7 +54303,7 @@
         <v>29</v>
       </c>
       <c r="H440" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I440,J440,K440)</f>
         <v>1.4443999999999999</v>
       </c>
       <c r="I440" s="5">
@@ -54380,7 +54380,7 @@
         <v>29</v>
       </c>
       <c r="H441" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I441,J441,K441)</f>
         <v>0.85709999999999997</v>
       </c>
       <c r="I441" s="5">
@@ -54457,7 +54457,7 @@
         <v>29</v>
       </c>
       <c r="H442" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I442,J442,K442)</f>
         <v>1.8</v>
       </c>
       <c r="I442" s="5">
@@ -54536,7 +54536,7 @@
         <v>29</v>
       </c>
       <c r="H443" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I443,J443,K443)</f>
         <v>1.8571</v>
       </c>
       <c r="I443" s="5">
@@ -54613,7 +54613,7 @@
         <v>29</v>
       </c>
       <c r="H444" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I444,J444,K444)</f>
         <v>1.7142999999999999</v>
       </c>
       <c r="I444" s="5">
@@ -54690,7 +54690,7 @@
         <v>29</v>
       </c>
       <c r="H445" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I445,J445,K445)</f>
         <v>2.2222</v>
       </c>
       <c r="I445" s="5">
@@ -54767,7 +54767,7 @@
         <v>29</v>
       </c>
       <c r="H446" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I446,J446,K446)</f>
         <v>3</v>
       </c>
       <c r="I446" s="5">
@@ -54844,7 +54844,7 @@
         <v>29</v>
       </c>
       <c r="H447" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I447,J447,K447)</f>
         <v>0.8</v>
       </c>
       <c r="I447" s="5">
@@ -54923,7 +54923,7 @@
         <v>29</v>
       </c>
       <c r="H448" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I448,J448,K448)</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="I448" s="5">
@@ -55000,7 +55000,7 @@
         <v>32</v>
       </c>
       <c r="H449" s="5">
-        <f t="shared" si="6"/>
+        <f>MAX(I449,J449,K449)</f>
         <v>3.3332999999999999</v>
       </c>
       <c r="I449" s="5">
@@ -55077,7 +55077,7 @@
         <v>29</v>
       </c>
       <c r="H450" s="5">
-        <f t="shared" ref="H450:H513" si="7">MAX(I450,J450,K450)</f>
+        <f>MAX(I450,J450,K450)</f>
         <v>3.5714000000000001</v>
       </c>
       <c r="I450" s="5">
@@ -55154,7 +55154,7 @@
         <v>32</v>
       </c>
       <c r="H451" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I451,J451,K451)</f>
         <v>3.4443999999999999</v>
       </c>
       <c r="I451" s="5">
@@ -55231,7 +55231,7 @@
         <v>29</v>
       </c>
       <c r="H452" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I452,J452,K452)</f>
         <v>1.2857000000000001</v>
       </c>
       <c r="I452" s="5">
@@ -55308,7 +55308,7 @@
         <v>29</v>
       </c>
       <c r="H453" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I453,J453,K453)</f>
         <v>0.79069999999999996</v>
       </c>
       <c r="I453" s="5">
@@ -55387,7 +55387,7 @@
         <v>30</v>
       </c>
       <c r="H454" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I454,J454,K454)</f>
         <v>2.75</v>
       </c>
       <c r="I454" s="5">
@@ -55452,7 +55452,7 @@
         <v>29</v>
       </c>
       <c r="H455" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I455,J455,K455)</f>
         <v>4.4286000000000003</v>
       </c>
       <c r="I455" s="5">
@@ -55529,7 +55529,7 @@
         <v>29</v>
       </c>
       <c r="H456" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I456,J456,K456)</f>
         <v>2.2222</v>
       </c>
       <c r="I456" s="5">
@@ -55606,7 +55606,7 @@
         <v>29</v>
       </c>
       <c r="H457" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I457,J457,K457)</f>
         <v>2.125</v>
       </c>
       <c r="I457" s="5">
@@ -55683,7 +55683,7 @@
         <v>29</v>
       </c>
       <c r="H458" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I458,J458,K458)</f>
         <v>2.2222</v>
       </c>
       <c r="I458" s="5">
@@ -55760,7 +55760,7 @@
         <v>29</v>
       </c>
       <c r="H459" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I459,J459,K459)</f>
         <v>1.75</v>
       </c>
       <c r="I459" s="5">
@@ -55825,7 +55825,7 @@
         <v>32</v>
       </c>
       <c r="H460" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I460,J460,K460)</f>
         <v>3.375</v>
       </c>
       <c r="I460" s="5">
@@ -55894,7 +55894,7 @@
         <v>29</v>
       </c>
       <c r="H461" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I461,J461,K461)</f>
         <v>1.875</v>
       </c>
       <c r="I461" s="5">
@@ -55973,7 +55973,7 @@
         <v>29</v>
       </c>
       <c r="H462" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I462,J462,K462)</f>
         <v>2.2222</v>
       </c>
       <c r="I462" s="5">
@@ -56052,7 +56052,7 @@
         <v>30</v>
       </c>
       <c r="H463" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I463,J463,K463)</f>
         <v>2.8</v>
       </c>
       <c r="I463" s="5">
@@ -56121,7 +56121,7 @@
         <v>30</v>
       </c>
       <c r="H464" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I464,J464,K464)</f>
         <v>3.4285999999999999</v>
       </c>
       <c r="I464" s="5">
@@ -56198,7 +56198,7 @@
         <v>29</v>
       </c>
       <c r="H465" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I465,J465,K465)</f>
         <v>1.3332999999999999</v>
       </c>
       <c r="I465" s="5">
@@ -56275,7 +56275,7 @@
         <v>30</v>
       </c>
       <c r="H466" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I466,J466,K466)</f>
         <v>3.6</v>
       </c>
       <c r="I466" s="5">
@@ -56344,7 +56344,7 @@
         <v>32</v>
       </c>
       <c r="H467" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I467,J467,K467)</f>
         <v>1.8889</v>
       </c>
       <c r="I467" s="5">
@@ -56421,7 +56421,7 @@
         <v>29</v>
       </c>
       <c r="H468" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I468,J468,K468)</f>
         <v>2.125</v>
       </c>
       <c r="I468" s="5">
@@ -56498,7 +56498,7 @@
         <v>29</v>
       </c>
       <c r="H469" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I469,J469,K469)</f>
         <v>3.875</v>
       </c>
       <c r="I469" s="5">
@@ -56577,7 +56577,7 @@
         <v>29</v>
       </c>
       <c r="H470" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I470,J470,K470)</f>
         <v>1.5713999999999999</v>
       </c>
       <c r="I470" s="5">
@@ -56654,7 +56654,7 @@
         <v>30</v>
       </c>
       <c r="H471" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I471,J471,K471)</f>
         <v>2.2222</v>
       </c>
       <c r="I471" s="5">
@@ -56731,7 +56731,7 @@
         <v>29</v>
       </c>
       <c r="H472" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I472,J472,K472)</f>
         <v>2.3332999999999999</v>
       </c>
       <c r="I472" s="5">
@@ -56808,7 +56808,7 @@
         <v>29</v>
       </c>
       <c r="H473" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I473,J473,K473)</f>
         <v>3.4</v>
       </c>
       <c r="I473" s="5">
@@ -56887,7 +56887,7 @@
         <v>29</v>
       </c>
       <c r="H474" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I474,J474,K474)</f>
         <v>2.6667000000000001</v>
       </c>
       <c r="I474" s="5">
@@ -56964,7 +56964,7 @@
         <v>32</v>
       </c>
       <c r="H475" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I475,J475,K475)</f>
         <v>2.6667000000000001</v>
       </c>
       <c r="I475" s="5">
@@ -57037,7 +57037,7 @@
         <v>29</v>
       </c>
       <c r="H476" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I476,J476,K476)</f>
         <v>1.3332999999999999</v>
       </c>
       <c r="I476" s="5">
@@ -57114,7 +57114,7 @@
         <v>29</v>
       </c>
       <c r="H477" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I477,J477,K477)</f>
         <v>1.7778</v>
       </c>
       <c r="I477" s="5">
@@ -57191,7 +57191,7 @@
         <v>29</v>
       </c>
       <c r="H478" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I478,J478,K478)</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="I478" s="5">
@@ -57270,7 +57270,7 @@
         <v>29</v>
       </c>
       <c r="H479" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I479,J479,K479)</f>
         <v>2.7143000000000002</v>
       </c>
       <c r="I479" s="5">
@@ -57347,7 +57347,7 @@
         <v>29</v>
       </c>
       <c r="H480" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I480,J480,K480)</f>
         <v>1.625</v>
       </c>
       <c r="I480" s="5">
@@ -57424,7 +57424,7 @@
         <v>30</v>
       </c>
       <c r="H481" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I481,J481,K481)</f>
         <v>4.125</v>
       </c>
       <c r="I481" s="5">
@@ -57499,7 +57499,7 @@
         <v>29</v>
       </c>
       <c r="H482" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I482,J482,K482)</f>
         <v>1.1111</v>
       </c>
       <c r="I482" s="5">
@@ -57574,7 +57574,7 @@
         <v>29</v>
       </c>
       <c r="H483" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I483,J483,K483)</f>
         <v>2</v>
       </c>
       <c r="I483" s="5">
@@ -57651,7 +57651,7 @@
         <v>29</v>
       </c>
       <c r="H484" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I484,J484,K484)</f>
         <v>1.6667000000000001</v>
       </c>
       <c r="I484" s="5">
@@ -57728,7 +57728,7 @@
         <v>29</v>
       </c>
       <c r="H485" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I485,J485,K485)</f>
         <v>2.5556000000000001</v>
       </c>
       <c r="I485" s="5">
@@ -57803,7 +57803,7 @@
         <v>29</v>
       </c>
       <c r="H486" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I486,J486,K486)</f>
         <v>2.4443999999999999</v>
       </c>
       <c r="I486" s="5">
@@ -57880,7 +57880,7 @@
         <v>29</v>
       </c>
       <c r="H487" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I487,J487,K487)</f>
         <v>0.875</v>
       </c>
       <c r="I487" s="5">
@@ -57957,7 +57957,7 @@
         <v>30</v>
       </c>
       <c r="H488" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I488,J488,K488)</f>
         <v>2.2856999999999998</v>
       </c>
       <c r="I488" s="5">
@@ -58026,7 +58026,7 @@
         <v>29</v>
       </c>
       <c r="H489" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I489,J489,K489)</f>
         <v>4.125</v>
       </c>
       <c r="I489" s="5">
@@ -58103,7 +58103,7 @@
         <v>29</v>
       </c>
       <c r="H490" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I490,J490,K490)</f>
         <v>1.1429</v>
       </c>
       <c r="I490" s="5">
@@ -58180,7 +58180,7 @@
         <v>29</v>
       </c>
       <c r="H491" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I491,J491,K491)</f>
         <v>1.5</v>
       </c>
       <c r="I491" s="5">
@@ -58259,7 +58259,7 @@
         <v>32</v>
       </c>
       <c r="H492" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I492,J492,K492)</f>
         <v>3.2222</v>
       </c>
       <c r="I492" s="5">
@@ -58336,7 +58336,7 @@
         <v>29</v>
       </c>
       <c r="H493" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I493,J493,K493)</f>
         <v>3.2856999999999998</v>
       </c>
       <c r="I493" s="5">
@@ -58413,7 +58413,7 @@
         <v>29</v>
       </c>
       <c r="H494" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I494,J494,K494)</f>
         <v>3.2222</v>
       </c>
       <c r="I494" s="5">
@@ -58490,7 +58490,7 @@
         <v>29</v>
       </c>
       <c r="H495" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I495,J495,K495)</f>
         <v>3</v>
       </c>
       <c r="I495" s="5">
@@ -58567,7 +58567,7 @@
         <v>29</v>
       </c>
       <c r="H496" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I496,J496,K496)</f>
         <v>3.25</v>
       </c>
       <c r="I496" s="5">
@@ -58630,7 +58630,7 @@
         <v>29</v>
       </c>
       <c r="H497" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I497,J497,K497)</f>
         <v>1.2</v>
       </c>
       <c r="I497" s="5">
@@ -58709,7 +58709,7 @@
         <v>29</v>
       </c>
       <c r="H498" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I498,J498,K498)</f>
         <v>3.25</v>
       </c>
       <c r="I498" s="5">
@@ -58788,7 +58788,7 @@
         <v>29</v>
       </c>
       <c r="H499" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I499,J499,K499)</f>
         <v>2.875</v>
       </c>
       <c r="I499" s="5">
@@ -58865,7 +58865,7 @@
         <v>29</v>
       </c>
       <c r="H500" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I500,J500,K500)</f>
         <v>1.5556000000000001</v>
       </c>
       <c r="I500" s="5">
@@ -58942,7 +58942,7 @@
         <v>29</v>
       </c>
       <c r="H501" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I501,J501,K501)</f>
         <v>1.6667000000000001</v>
       </c>
       <c r="I501" s="5">
@@ -59019,7 +59019,7 @@
         <v>29</v>
       </c>
       <c r="H502" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I502,J502,K502)</f>
         <v>3.3332999999999999</v>
       </c>
       <c r="I502" s="5">
@@ -59096,7 +59096,7 @@
         <v>29</v>
       </c>
       <c r="H503" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I503,J503,K503)</f>
         <v>0.88890000000000002</v>
       </c>
       <c r="I503" s="5">
@@ -59173,7 +59173,7 @@
         <v>29</v>
       </c>
       <c r="H504" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I504,J504,K504)</f>
         <v>1.1429</v>
       </c>
       <c r="I504" s="5">
@@ -59250,7 +59250,7 @@
         <v>29</v>
       </c>
       <c r="H505" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I505,J505,K505)</f>
         <v>1.2</v>
       </c>
       <c r="I505" s="5">
@@ -59329,7 +59329,7 @@
         <v>29</v>
       </c>
       <c r="H506" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I506,J506,K506)</f>
         <v>1.7778</v>
       </c>
       <c r="I506" s="5">
@@ -59406,7 +59406,7 @@
         <v>29</v>
       </c>
       <c r="H507" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I507,J507,K507)</f>
         <v>2.4443999999999999</v>
       </c>
       <c r="I507" s="5">
@@ -59483,7 +59483,7 @@
         <v>32</v>
       </c>
       <c r="H508" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I508,J508,K508)</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="I508" s="5">
@@ -59552,7 +59552,7 @@
         <v>32</v>
       </c>
       <c r="H509" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I509,J509,K509)</f>
         <v>3.6</v>
       </c>
       <c r="I509" s="5">
@@ -59629,7 +59629,7 @@
         <v>32</v>
       </c>
       <c r="H510" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I510,J510,K510)</f>
         <v>2.625</v>
       </c>
       <c r="I510" s="5">
@@ -59698,7 +59698,7 @@
         <v>29</v>
       </c>
       <c r="H511" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I511,J511,K511)</f>
         <v>2.875</v>
       </c>
       <c r="I511" s="5">
@@ -59775,7 +59775,7 @@
         <v>29</v>
       </c>
       <c r="H512" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I512,J512,K512)</f>
         <v>1.75</v>
       </c>
       <c r="I512" s="5">
@@ -59854,7 +59854,7 @@
         <v>30</v>
       </c>
       <c r="H513" s="5">
-        <f t="shared" si="7"/>
+        <f>MAX(I513,J513,K513)</f>
         <v>4</v>
       </c>
       <c r="I513" s="5">
@@ -59931,7 +59931,7 @@
         <v>29</v>
       </c>
       <c r="H514" s="5">
-        <f t="shared" ref="H514:H577" si="8">MAX(I514,J514,K514)</f>
+        <f>MAX(I514,J514,K514)</f>
         <v>2</v>
       </c>
       <c r="I514" s="5">
@@ -60008,7 +60008,7 @@
         <v>29</v>
       </c>
       <c r="H515" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I515,J515,K515)</f>
         <v>2.625</v>
       </c>
       <c r="I515" s="5">
@@ -60077,7 +60077,7 @@
         <v>29</v>
       </c>
       <c r="H516" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I516,J516,K516)</f>
         <v>2.875</v>
       </c>
       <c r="I516" s="5">
@@ -60156,7 +60156,7 @@
         <v>29</v>
       </c>
       <c r="H517" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I517,J517,K517)</f>
         <v>0.73909999999999998</v>
       </c>
       <c r="I517" s="5">
@@ -60235,7 +60235,7 @@
         <v>29</v>
       </c>
       <c r="H518" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I518,J518,K518)</f>
         <v>0.73909999999999998</v>
       </c>
       <c r="I518" s="5">
@@ -60306,7 +60306,7 @@
         <v>29</v>
       </c>
       <c r="H519" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I519,J519,K519)</f>
         <v>2.125</v>
       </c>
       <c r="I519" s="5">
@@ -60369,7 +60369,7 @@
         <v>29</v>
       </c>
       <c r="H520" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I520,J520,K520)</f>
         <v>2.125</v>
       </c>
       <c r="I520" s="5">
@@ -60448,7 +60448,7 @@
         <v>30</v>
       </c>
       <c r="H521" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I521,J521,K521)</f>
         <v>3.7143000000000002</v>
       </c>
       <c r="I521" s="5">
@@ -60525,7 +60525,7 @@
         <v>29</v>
       </c>
       <c r="H522" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I522,J522,K522)</f>
         <v>2.2999999999999998</v>
       </c>
       <c r="I522" s="5">
@@ -60592,7 +60592,7 @@
         <v>29</v>
       </c>
       <c r="H523" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I523,J523,K523)</f>
         <v>1.3332999999999999</v>
       </c>
       <c r="I523" s="5">
@@ -60669,7 +60669,7 @@
         <v>29</v>
       </c>
       <c r="H524" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I524,J524,K524)</f>
         <v>1.2</v>
       </c>
       <c r="I524" s="5">
@@ -60748,7 +60748,7 @@
         <v>29</v>
       </c>
       <c r="H525" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I525,J525,K525)</f>
         <v>2.25</v>
       </c>
       <c r="I525" s="5">
@@ -60811,7 +60811,7 @@
         <v>29</v>
       </c>
       <c r="H526" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I526,J526,K526)</f>
         <v>2.375</v>
       </c>
       <c r="I526" s="5">
@@ -60890,7 +60890,7 @@
         <v>29</v>
       </c>
       <c r="H527" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I527,J527,K527)</f>
         <v>1.4</v>
       </c>
       <c r="I527" s="5">
@@ -60969,7 +60969,7 @@
         <v>32</v>
       </c>
       <c r="H528" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I528,J528,K528)</f>
         <v>4.75</v>
       </c>
       <c r="I528" s="5">
@@ -61036,7 +61036,7 @@
         <v>29</v>
       </c>
       <c r="H529" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I529,J529,K529)</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="I529" s="5">
@@ -61115,7 +61115,7 @@
         <v>30</v>
       </c>
       <c r="H530" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I530,J530,K530)</f>
         <v>3</v>
       </c>
       <c r="I530" s="5">
@@ -61194,7 +61194,7 @@
         <v>29</v>
       </c>
       <c r="H531" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I531,J531,K531)</f>
         <v>3.5714000000000001</v>
       </c>
       <c r="I531" s="5">
@@ -61271,7 +61271,7 @@
         <v>29</v>
       </c>
       <c r="H532" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I532,J532,K532)</f>
         <v>1.2222</v>
       </c>
       <c r="I532" s="5">
@@ -61350,7 +61350,7 @@
         <v>29</v>
       </c>
       <c r="H533" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I533,J533,K533)</f>
         <v>3</v>
       </c>
       <c r="I533" s="5">
@@ -61427,7 +61427,7 @@
         <v>29</v>
       </c>
       <c r="H534" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I534,J534,K534)</f>
         <v>1.3332999999999999</v>
       </c>
       <c r="I534" s="5">
@@ -61506,7 +61506,7 @@
         <v>29</v>
       </c>
       <c r="H535" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I535,J535,K535)</f>
         <v>1.6667000000000001</v>
       </c>
       <c r="I535" s="5">
@@ -61583,7 +61583,7 @@
         <v>29</v>
       </c>
       <c r="H536" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I536,J536,K536)</f>
         <v>1.7</v>
       </c>
       <c r="I536" s="5">
@@ -61662,7 +61662,7 @@
         <v>32</v>
       </c>
       <c r="H537" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I537,J537,K537)</f>
         <v>2.6667000000000001</v>
       </c>
       <c r="I537" s="5">
@@ -61739,7 +61739,7 @@
         <v>29</v>
       </c>
       <c r="H538" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I538,J538,K538)</f>
         <v>1.8889</v>
       </c>
       <c r="I538" s="5">
@@ -61816,7 +61816,7 @@
         <v>29</v>
       </c>
       <c r="H539" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I539,J539,K539)</f>
         <v>3.4</v>
       </c>
       <c r="I539" s="5">
@@ -61895,7 +61895,7 @@
         <v>32</v>
       </c>
       <c r="H540" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I540,J540,K540)</f>
         <v>4.1666999999999996</v>
       </c>
       <c r="I540" s="5">
@@ -61958,7 +61958,7 @@
         <v>29</v>
       </c>
       <c r="H541" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I541,J541,K541)</f>
         <v>2</v>
       </c>
       <c r="I541" s="5">
@@ -62029,7 +62029,7 @@
         <v>29</v>
       </c>
       <c r="H542" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I542,J542,K542)</f>
         <v>1.6667000000000001</v>
       </c>
       <c r="I542" s="5">
@@ -62106,7 +62106,7 @@
         <v>29</v>
       </c>
       <c r="H543" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I543,J543,K543)</f>
         <v>1.3332999999999999</v>
       </c>
       <c r="I543" s="5">
@@ -62185,7 +62185,7 @@
         <v>30</v>
       </c>
       <c r="H544" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I544,J544,K544)</f>
         <v>2.7143000000000002</v>
       </c>
       <c r="I544" s="5">
@@ -62262,7 +62262,7 @@
         <v>29</v>
       </c>
       <c r="H545" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I545,J545,K545)</f>
         <v>2.7778</v>
       </c>
       <c r="I545" s="5">
@@ -62339,7 +62339,7 @@
         <v>29</v>
       </c>
       <c r="H546" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I546,J546,K546)</f>
         <v>3</v>
       </c>
       <c r="I546" s="5">
@@ -62418,7 +62418,7 @@
         <v>29</v>
       </c>
       <c r="H547" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I547,J547,K547)</f>
         <v>3.6667000000000001</v>
       </c>
       <c r="I547" s="5">
@@ -62495,7 +62495,7 @@
         <v>32</v>
       </c>
       <c r="H548" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I548,J548,K548)</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="I548" s="5">
@@ -62572,7 +62572,7 @@
         <v>32</v>
       </c>
       <c r="H549" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I549,J549,K549)</f>
         <v>2.8889</v>
       </c>
       <c r="I549" s="5">
@@ -62651,7 +62651,7 @@
         <v>32</v>
       </c>
       <c r="H550" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I550,J550,K550)</f>
         <v>4.8</v>
       </c>
       <c r="I550" s="5">
@@ -62722,7 +62722,7 @@
         <v>29</v>
       </c>
       <c r="H551" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I551,J551,K551)</f>
         <v>1.6667000000000001</v>
       </c>
       <c r="I551" s="5">
@@ -62799,7 +62799,7 @@
         <v>29</v>
       </c>
       <c r="H552" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I552,J552,K552)</f>
         <v>2.7143000000000002</v>
       </c>
       <c r="I552" s="5">
@@ -62876,7 +62876,7 @@
         <v>29</v>
       </c>
       <c r="H553" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I553,J553,K553)</f>
         <v>3.4</v>
       </c>
       <c r="I553" s="5">
@@ -62943,7 +62943,7 @@
         <v>29</v>
       </c>
       <c r="H554" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I554,J554,K554)</f>
         <v>1.8332999999999999</v>
       </c>
       <c r="I554" s="5">
@@ -63020,7 +63020,7 @@
         <v>30</v>
       </c>
       <c r="H555" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I555,J555,K555)</f>
         <v>3</v>
       </c>
       <c r="I555" s="5">
@@ -63091,7 +63091,7 @@
         <v>32</v>
       </c>
       <c r="H556" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I556,J556,K556)</f>
         <v>2.2222</v>
       </c>
       <c r="I556" s="5">
@@ -63168,7 +63168,7 @@
         <v>29</v>
       </c>
       <c r="H557" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I557,J557,K557)</f>
         <v>1.7142999999999999</v>
       </c>
       <c r="I557" s="5">
@@ -63245,7 +63245,7 @@
         <v>29</v>
       </c>
       <c r="H558" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I558,J558,K558)</f>
         <v>2.6667000000000001</v>
       </c>
       <c r="I558" s="5">
@@ -63322,7 +63322,7 @@
         <v>29</v>
       </c>
       <c r="H559" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I559,J559,K559)</f>
         <v>1.8571</v>
       </c>
       <c r="I559" s="5">
@@ -63391,7 +63391,7 @@
         <v>32</v>
       </c>
       <c r="H560" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I560,J560,K560)</f>
         <v>4.7142999999999997</v>
       </c>
       <c r="I560" s="5">
@@ -63468,7 +63468,7 @@
         <v>32</v>
       </c>
       <c r="H561" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I561,J561,K561)</f>
         <v>4.5</v>
       </c>
       <c r="I561" s="5">
@@ -63537,7 +63537,7 @@
         <v>29</v>
       </c>
       <c r="H562" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I562,J562,K562)</f>
         <v>2.1429</v>
       </c>
       <c r="I562" s="5">
@@ -63614,7 +63614,7 @@
         <v>30</v>
       </c>
       <c r="H563" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I563,J563,K563)</f>
         <v>3.6</v>
       </c>
       <c r="I563" s="5">
@@ -63693,7 +63693,7 @@
         <v>29</v>
       </c>
       <c r="H564" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I564,J564,K564)</f>
         <v>1.4443999999999999</v>
       </c>
       <c r="I564" s="5">
@@ -63770,7 +63770,7 @@
         <v>30</v>
       </c>
       <c r="H565" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I565,J565,K565)</f>
         <v>4</v>
       </c>
       <c r="I565" s="5">
@@ -63849,7 +63849,7 @@
         <v>32</v>
       </c>
       <c r="H566" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I566,J566,K566)</f>
         <v>2.125</v>
       </c>
       <c r="I566" s="5">
@@ -63912,7 +63912,7 @@
         <v>29</v>
       </c>
       <c r="H567" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I567,J567,K567)</f>
         <v>0.8</v>
       </c>
       <c r="I567" s="5">
@@ -63991,7 +63991,7 @@
         <v>29</v>
       </c>
       <c r="H568" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I568,J568,K568)</f>
         <v>2.5556000000000001</v>
       </c>
       <c r="I568" s="5">
@@ -64070,7 +64070,7 @@
         <v>29</v>
       </c>
       <c r="H569" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I569,J569,K569)</f>
         <v>3.7778</v>
       </c>
       <c r="I569" s="5">
@@ -64147,7 +64147,7 @@
         <v>29</v>
       </c>
       <c r="H570" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I570,J570,K570)</f>
         <v>2.25</v>
       </c>
       <c r="I570" s="5">
@@ -64226,7 +64226,7 @@
         <v>29</v>
       </c>
       <c r="H571" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I571,J571,K571)</f>
         <v>1.625</v>
       </c>
       <c r="I571" s="5">
@@ -64303,7 +64303,7 @@
         <v>29</v>
       </c>
       <c r="H572" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I572,J572,K572)</f>
         <v>2.875</v>
       </c>
       <c r="I572" s="5">
@@ -64382,7 +64382,7 @@
         <v>29</v>
       </c>
       <c r="H573" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I573,J573,K573)</f>
         <v>3.8571</v>
       </c>
       <c r="I573" s="5">
@@ -64461,7 +64461,7 @@
         <v>29</v>
       </c>
       <c r="H574" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I574,J574,K574)</f>
         <v>1.2222</v>
       </c>
       <c r="I574" s="5">
@@ -64540,7 +64540,7 @@
         <v>30</v>
       </c>
       <c r="H575" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I575,J575,K575)</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="I575" s="5">
@@ -64611,7 +64611,7 @@
         <v>29</v>
       </c>
       <c r="H576" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I576,J576,K576)</f>
         <v>1.7778</v>
       </c>
       <c r="I576" s="5">
@@ -64688,7 +64688,7 @@
         <v>30</v>
       </c>
       <c r="H577" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(I577,J577,K577)</f>
         <v>2.8889</v>
       </c>
       <c r="I577" s="5">
@@ -64765,7 +64765,7 @@
         <v>30</v>
       </c>
       <c r="H578" s="5">
-        <f t="shared" ref="H578:H641" si="9">MAX(I578,J578,K578)</f>
+        <f>MAX(I578,J578,K578)</f>
         <v>3.7143000000000002</v>
       </c>
       <c r="I578" s="5">
@@ -64842,7 +64842,7 @@
         <v>32</v>
       </c>
       <c r="H579" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I579,J579,K579)</f>
         <v>4</v>
       </c>
       <c r="I579" s="5">
@@ -64911,7 +64911,7 @@
         <v>29</v>
       </c>
       <c r="H580" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I580,J580,K580)</f>
         <v>3.625</v>
       </c>
       <c r="I580" s="5">
@@ -64990,7 +64990,7 @@
         <v>30</v>
       </c>
       <c r="H581" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I581,J581,K581)</f>
         <v>4.2222</v>
       </c>
       <c r="I581" s="5">
@@ -65067,7 +65067,7 @@
         <v>29</v>
       </c>
       <c r="H582" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I582,J582,K582)</f>
         <v>2.1111</v>
       </c>
       <c r="I582" s="5">
@@ -65144,7 +65144,7 @@
         <v>29</v>
       </c>
       <c r="H583" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I583,J583,K583)</f>
         <v>1.875</v>
       </c>
       <c r="I583" s="5">
@@ -65219,7 +65219,7 @@
         <v>29</v>
       </c>
       <c r="H584" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I584,J584,K584)</f>
         <v>3.3332999999999999</v>
       </c>
       <c r="I584" s="5">
@@ -65296,7 +65296,7 @@
         <v>32</v>
       </c>
       <c r="H585" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I585,J585,K585)</f>
         <v>2.375</v>
       </c>
       <c r="I585" s="5">
@@ -65365,7 +65365,7 @@
         <v>29</v>
       </c>
       <c r="H586" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I586,J586,K586)</f>
         <v>2.5</v>
       </c>
       <c r="I586" s="5">
@@ -65444,7 +65444,7 @@
         <v>30</v>
       </c>
       <c r="H587" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I587,J587,K587)</f>
         <v>3</v>
       </c>
       <c r="I587" s="5">
@@ -65521,7 +65521,7 @@
         <v>32</v>
       </c>
       <c r="H588" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I588,J588,K588)</f>
         <v>4.8571</v>
       </c>
       <c r="I588" s="5">
@@ -65598,7 +65598,7 @@
         <v>29</v>
       </c>
       <c r="H589" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I589,J589,K589)</f>
         <v>3</v>
       </c>
       <c r="I589" s="5">
@@ -65677,7 +65677,7 @@
         <v>30</v>
       </c>
       <c r="H590" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I590,J590,K590)</f>
         <v>2.375</v>
       </c>
       <c r="I590" s="5">
@@ -65754,7 +65754,7 @@
         <v>29</v>
       </c>
       <c r="H591" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I591,J591,K591)</f>
         <v>1.8571</v>
       </c>
       <c r="I591" s="5">
@@ -65831,7 +65831,7 @@
         <v>29</v>
       </c>
       <c r="H592" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I592,J592,K592)</f>
         <v>3.25</v>
       </c>
       <c r="I592" s="5">
@@ -65910,7 +65910,7 @@
         <v>30</v>
       </c>
       <c r="H593" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I593,J593,K593)</f>
         <v>3.2222</v>
       </c>
       <c r="I593" s="5">
@@ -65979,7 +65979,7 @@
         <v>29</v>
       </c>
       <c r="H594" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I594,J594,K594)</f>
         <v>2.2222</v>
       </c>
       <c r="I594" s="5">
@@ -66056,7 +66056,7 @@
         <v>32</v>
       </c>
       <c r="H595" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I595,J595,K595)</f>
         <v>3.8</v>
       </c>
       <c r="I595" s="5">
@@ -66135,7 +66135,7 @@
         <v>29</v>
       </c>
       <c r="H596" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I596,J596,K596)</f>
         <v>1.75</v>
       </c>
       <c r="I596" s="5">
@@ -66208,7 +66208,7 @@
         <v>30</v>
       </c>
       <c r="H597" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I597,J597,K597)</f>
         <v>4.6666999999999996</v>
       </c>
       <c r="I597" s="5">
@@ -66285,7 +66285,7 @@
         <v>29</v>
       </c>
       <c r="H598" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I598,J598,K598)</f>
         <v>4</v>
       </c>
       <c r="I598" s="5">
@@ -66362,7 +66362,7 @@
         <v>29</v>
       </c>
       <c r="H599" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I599,J599,K599)</f>
         <v>2.4443999999999999</v>
       </c>
       <c r="I599" s="5">
@@ -66441,7 +66441,7 @@
         <v>29</v>
       </c>
       <c r="H600" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I600,J600,K600)</f>
         <v>1.6</v>
       </c>
       <c r="I600" s="5">
@@ -66520,7 +66520,7 @@
         <v>29</v>
       </c>
       <c r="H601" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I601,J601,K601)</f>
         <v>2.4</v>
       </c>
       <c r="I601" s="5">
@@ -66599,7 +66599,7 @@
         <v>29</v>
       </c>
       <c r="H602" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I602,J602,K602)</f>
         <v>2</v>
       </c>
       <c r="I602" s="5">
@@ -66676,7 +66676,7 @@
         <v>32</v>
       </c>
       <c r="H603" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I603,J603,K603)</f>
         <v>4.375</v>
       </c>
       <c r="I603" s="5">
@@ -66753,7 +66753,7 @@
         <v>29</v>
       </c>
       <c r="H604" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I604,J604,K604)</f>
         <v>3</v>
       </c>
       <c r="I604" s="5">
@@ -66832,7 +66832,7 @@
         <v>29</v>
       </c>
       <c r="H605" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I605,J605,K605)</f>
         <v>1.25</v>
       </c>
       <c r="I605" s="5">
@@ -66911,7 +66911,7 @@
         <v>30</v>
       </c>
       <c r="H606" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I606,J606,K606)</f>
         <v>4</v>
       </c>
       <c r="I606" s="5">
@@ -66988,7 +66988,7 @@
         <v>29</v>
       </c>
       <c r="H607" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I607,J607,K607)</f>
         <v>3.2222</v>
       </c>
       <c r="I607" s="5">
@@ -67065,7 +67065,7 @@
         <v>29</v>
       </c>
       <c r="H608" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I608,J608,K608)</f>
         <v>2.0556000000000001</v>
       </c>
       <c r="I608" s="5">
@@ -67142,7 +67142,7 @@
         <v>29</v>
       </c>
       <c r="H609" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I609,J609,K609)</f>
         <v>1.5</v>
       </c>
       <c r="I609" s="5">
@@ -67217,7 +67217,7 @@
         <v>29</v>
       </c>
       <c r="H610" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I610,J610,K610)</f>
         <v>3.1429</v>
       </c>
       <c r="I610" s="5">
@@ -67294,7 +67294,7 @@
         <v>29</v>
       </c>
       <c r="H611" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I611,J611,K611)</f>
         <v>3.75</v>
       </c>
       <c r="I611" s="5">
@@ -67371,7 +67371,7 @@
         <v>29</v>
       </c>
       <c r="H612" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I612,J612,K612)</f>
         <v>0.88890000000000002</v>
       </c>
       <c r="I612" s="5">
@@ -67448,7 +67448,7 @@
         <v>30</v>
       </c>
       <c r="H613" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I613,J613,K613)</f>
         <v>3.75</v>
       </c>
       <c r="I613" s="5">
@@ -67527,7 +67527,7 @@
         <v>29</v>
       </c>
       <c r="H614" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I614,J614,K614)</f>
         <v>2.2222</v>
       </c>
       <c r="I614" s="5">
@@ -67604,7 +67604,7 @@
         <v>29</v>
       </c>
       <c r="H615" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I615,J615,K615)</f>
         <v>2.4443999999999999</v>
       </c>
       <c r="I615" s="5">
@@ -67681,7 +67681,7 @@
         <v>29</v>
       </c>
       <c r="H616" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I616,J616,K616)</f>
         <v>2.7143000000000002</v>
       </c>
       <c r="I616" s="5">
@@ -67758,7 +67758,7 @@
         <v>29</v>
       </c>
       <c r="H617" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I617,J617,K617)</f>
         <v>2.8571</v>
       </c>
       <c r="I617" s="5">
@@ -67821,7 +67821,7 @@
         <v>29</v>
       </c>
       <c r="H618" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I618,J618,K618)</f>
         <v>3.1429</v>
       </c>
       <c r="I618" s="5">
@@ -67898,7 +67898,7 @@
         <v>29</v>
       </c>
       <c r="H619" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I619,J619,K619)</f>
         <v>2.1111</v>
       </c>
       <c r="I619" s="5">
@@ -67975,7 +67975,7 @@
         <v>32</v>
       </c>
       <c r="H620" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I620,J620,K620)</f>
         <v>4.8888999999999996</v>
       </c>
       <c r="I620" s="5">
@@ -68052,7 +68052,7 @@
         <v>32</v>
       </c>
       <c r="H621" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I621,J621,K621)</f>
         <v>4.7778</v>
       </c>
       <c r="I621" s="5">
@@ -68127,7 +68127,7 @@
         <v>29</v>
       </c>
       <c r="H622" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I622,J622,K622)</f>
         <v>2.4</v>
       </c>
       <c r="I622" s="5">
@@ -68206,7 +68206,7 @@
         <v>29</v>
       </c>
       <c r="H623" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I623,J623,K623)</f>
         <v>1</v>
       </c>
       <c r="I623" s="5">
@@ -68283,7 +68283,7 @@
         <v>29</v>
       </c>
       <c r="H624" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I624,J624,K624)</f>
         <v>3.8571</v>
       </c>
       <c r="I624" s="5">
@@ -68360,7 +68360,7 @@
         <v>29</v>
       </c>
       <c r="H625" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I625,J625,K625)</f>
         <v>1.7778</v>
       </c>
       <c r="I625" s="5">
@@ -68437,7 +68437,7 @@
         <v>29</v>
       </c>
       <c r="H626" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I626,J626,K626)</f>
         <v>2.8889</v>
       </c>
       <c r="I626" s="5">
@@ -68514,7 +68514,7 @@
         <v>32</v>
       </c>
       <c r="H627" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I627,J627,K627)</f>
         <v>5</v>
       </c>
       <c r="I627" s="5">
@@ -68577,7 +68577,7 @@
         <v>30</v>
       </c>
       <c r="H628" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I628,J628,K628)</f>
         <v>3.125</v>
       </c>
       <c r="I628" s="5">
@@ -68654,7 +68654,7 @@
         <v>32</v>
       </c>
       <c r="H629" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I629,J629,K629)</f>
         <v>2.3332999999999999</v>
       </c>
       <c r="I629" s="5">
@@ -68717,7 +68717,7 @@
         <v>30</v>
       </c>
       <c r="H630" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I630,J630,K630)</f>
         <v>3.875</v>
       </c>
       <c r="I630" s="5">
@@ -68786,7 +68786,7 @@
         <v>29</v>
       </c>
       <c r="H631" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I631,J631,K631)</f>
         <v>1.8889</v>
       </c>
       <c r="I631" s="5">
@@ -68863,7 +68863,7 @@
         <v>29</v>
       </c>
       <c r="H632" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I632,J632,K632)</f>
         <v>1.6667000000000001</v>
       </c>
       <c r="I632" s="5">
@@ -68940,7 +68940,7 @@
         <v>29</v>
       </c>
       <c r="H633" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I633,J633,K633)</f>
         <v>2.4443999999999999</v>
       </c>
       <c r="I633" s="5">
@@ -69017,7 +69017,7 @@
         <v>32</v>
       </c>
       <c r="H634" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I634,J634,K634)</f>
         <v>3.5556000000000001</v>
       </c>
       <c r="I634" s="5">
@@ -69094,7 +69094,7 @@
         <v>29</v>
       </c>
       <c r="H635" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I635,J635,K635)</f>
         <v>1.3332999999999999</v>
       </c>
       <c r="I635" s="5">
@@ -69171,7 +69171,7 @@
         <v>29</v>
       </c>
       <c r="H636" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I636,J636,K636)</f>
         <v>3.2222</v>
       </c>
       <c r="I636" s="5">
@@ -69248,7 +69248,7 @@
         <v>29</v>
       </c>
       <c r="H637" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I637,J637,K637)</f>
         <v>1</v>
       </c>
       <c r="I637" s="5">
@@ -69327,7 +69327,7 @@
         <v>29</v>
       </c>
       <c r="H638" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I638,J638,K638)</f>
         <v>2.2222</v>
       </c>
       <c r="I638" s="5">
@@ -69404,7 +69404,7 @@
         <v>29</v>
       </c>
       <c r="H639" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I639,J639,K639)</f>
         <v>1.1111</v>
       </c>
       <c r="I639" s="5">
@@ -69479,7 +69479,7 @@
         <v>29</v>
       </c>
       <c r="H640" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I640,J640,K640)</f>
         <v>0.8</v>
       </c>
       <c r="I640" s="5">
@@ -69558,7 +69558,7 @@
         <v>29</v>
       </c>
       <c r="H641" s="5">
-        <f t="shared" si="9"/>
+        <f>MAX(I641,J641,K641)</f>
         <v>2.5714000000000001</v>
       </c>
       <c r="I641" s="5">
@@ -69635,7 +69635,7 @@
         <v>29</v>
       </c>
       <c r="H642" s="5">
-        <f t="shared" ref="H642:H705" si="10">MAX(I642,J642,K642)</f>
+        <f>MAX(I642,J642,K642)</f>
         <v>1.1429</v>
       </c>
       <c r="I642" s="5">
@@ -69712,7 +69712,7 @@
         <v>29</v>
       </c>
       <c r="H643" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I643,J643,K643)</f>
         <v>2.4443999999999999</v>
       </c>
       <c r="I643" s="5">
@@ -69789,7 +69789,7 @@
         <v>29</v>
       </c>
       <c r="H644" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I644,J644,K644)</f>
         <v>3</v>
       </c>
       <c r="I644" s="5">
@@ -69866,7 +69866,7 @@
         <v>29</v>
       </c>
       <c r="H645" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I645,J645,K645)</f>
         <v>1.7778</v>
       </c>
       <c r="I645" s="5">
@@ -69943,7 +69943,7 @@
         <v>29</v>
       </c>
       <c r="H646" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I646,J646,K646)</f>
         <v>0.66669999999999996</v>
       </c>
       <c r="I646" s="5">
@@ -70020,7 +70020,7 @@
         <v>29</v>
       </c>
       <c r="H647" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I647,J647,K647)</f>
         <v>1.4443999999999999</v>
       </c>
       <c r="I647" s="5">
@@ -70097,7 +70097,7 @@
         <v>29</v>
       </c>
       <c r="H648" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I648,J648,K648)</f>
         <v>1.8</v>
       </c>
       <c r="I648" s="5">
@@ -70176,7 +70176,7 @@
         <v>29</v>
       </c>
       <c r="H649" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I649,J649,K649)</f>
         <v>1.2222</v>
       </c>
       <c r="I649" s="5">
@@ -70249,7 +70249,7 @@
         <v>29</v>
       </c>
       <c r="H650" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I650,J650,K650)</f>
         <v>2.1</v>
       </c>
       <c r="I650" s="5">
@@ -70322,7 +70322,7 @@
         <v>29</v>
       </c>
       <c r="H651" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I651,J651,K651)</f>
         <v>2.2856999999999998</v>
       </c>
       <c r="I651" s="5">
@@ -70399,7 +70399,7 @@
         <v>30</v>
       </c>
       <c r="H652" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I652,J652,K652)</f>
         <v>4</v>
       </c>
       <c r="I652" s="5">
@@ -70476,7 +70476,7 @@
         <v>29</v>
       </c>
       <c r="H653" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I653,J653,K653)</f>
         <v>1.25</v>
       </c>
       <c r="I653" s="5">
@@ -70553,7 +70553,7 @@
         <v>29</v>
       </c>
       <c r="H654" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I654,J654,K654)</f>
         <v>1.7142999999999999</v>
       </c>
       <c r="I654" s="5">
@@ -70630,7 +70630,7 @@
         <v>29</v>
       </c>
       <c r="H655" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I655,J655,K655)</f>
         <v>3</v>
       </c>
       <c r="I655" s="5">
@@ -70707,7 +70707,7 @@
         <v>32</v>
       </c>
       <c r="H656" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I656,J656,K656)</f>
         <v>3.4285999999999999</v>
       </c>
       <c r="I656" s="5">
@@ -70784,7 +70784,7 @@
         <v>32</v>
       </c>
       <c r="H657" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I657,J657,K657)</f>
         <v>3</v>
       </c>
       <c r="I657" s="5">
@@ -70861,7 +70861,7 @@
         <v>29</v>
       </c>
       <c r="H658" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I658,J658,K658)</f>
         <v>2</v>
       </c>
       <c r="I658" s="5">
@@ -70928,7 +70928,7 @@
         <v>32</v>
       </c>
       <c r="H659" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I659,J659,K659)</f>
         <v>2.6667000000000001</v>
       </c>
       <c r="I659" s="5">
@@ -71005,7 +71005,7 @@
         <v>29</v>
       </c>
       <c r="H660" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I660,J660,K660)</f>
         <v>1.3</v>
       </c>
       <c r="I660" s="5">
@@ -71076,7 +71076,7 @@
         <v>32</v>
       </c>
       <c r="H661" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I661,J661,K661)</f>
         <v>2.5556000000000001</v>
       </c>
       <c r="I661" s="5">
@@ -71153,7 +71153,7 @@
         <v>29</v>
       </c>
       <c r="H662" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I662,J662,K662)</f>
         <v>1.1429</v>
       </c>
       <c r="I662" s="5">
@@ -71230,7 +71230,7 @@
         <v>29</v>
       </c>
       <c r="H663" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I663,J663,K663)</f>
         <v>1.7142999999999999</v>
       </c>
       <c r="I663" s="5">
@@ -71307,7 +71307,7 @@
         <v>29</v>
       </c>
       <c r="H664" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I664,J664,K664)</f>
         <v>1.75</v>
       </c>
       <c r="I664" s="5">
@@ -71386,7 +71386,7 @@
         <v>29</v>
       </c>
       <c r="H665" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I665,J665,K665)</f>
         <v>1.7778</v>
       </c>
       <c r="I665" s="5">
@@ -71463,7 +71463,7 @@
         <v>29</v>
       </c>
       <c r="H666" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I666,J666,K666)</f>
         <v>1</v>
       </c>
       <c r="I666" s="5">
@@ -71534,7 +71534,7 @@
         <v>32</v>
       </c>
       <c r="H667" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I667,J667,K667)</f>
         <v>1.6</v>
       </c>
       <c r="I667" s="5">
@@ -71601,7 +71601,7 @@
         <v>29</v>
       </c>
       <c r="H668" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I668,J668,K668)</f>
         <v>1.2</v>
       </c>
       <c r="I668" s="5">
@@ -71664,7 +71664,7 @@
         <v>29</v>
       </c>
       <c r="H669" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I669,J669,K669)</f>
         <v>2.9443999999999999</v>
       </c>
       <c r="I669" s="5">
@@ -71741,7 +71741,7 @@
         <v>29</v>
       </c>
       <c r="H670" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I670,J670,K670)</f>
         <v>1.6667000000000001</v>
       </c>
       <c r="I670" s="5">
@@ -71818,7 +71818,7 @@
         <v>29</v>
       </c>
       <c r="H671" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I671,J671,K671)</f>
         <v>2.3332999999999999</v>
       </c>
       <c r="I671" s="5">
@@ -71883,7 +71883,7 @@
         <v>29</v>
       </c>
       <c r="H672" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I672,J672,K672)</f>
         <v>3.25</v>
       </c>
       <c r="I672" s="5">
@@ -71962,7 +71962,7 @@
         <v>29</v>
       </c>
       <c r="H673" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I673,J673,K673)</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="I673" s="5">
@@ -72041,7 +72041,7 @@
         <v>29</v>
       </c>
       <c r="H674" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I674,J674,K674)</f>
         <v>3.7778</v>
       </c>
       <c r="I674" s="5">
@@ -72116,7 +72116,7 @@
         <v>30</v>
       </c>
       <c r="H675" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I675,J675,K675)</f>
         <v>4</v>
       </c>
       <c r="I675" s="5">
@@ -72193,7 +72193,7 @@
         <v>29</v>
       </c>
       <c r="H676" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I676,J676,K676)</f>
         <v>2.3332999999999999</v>
       </c>
       <c r="I676" s="5">
@@ -72270,7 +72270,7 @@
         <v>29</v>
       </c>
       <c r="H677" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I677,J677,K677)</f>
         <v>3.2</v>
       </c>
       <c r="I677" s="5">
@@ -72349,7 +72349,7 @@
         <v>29</v>
       </c>
       <c r="H678" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I678,J678,K678)</f>
         <v>3.8571</v>
       </c>
       <c r="I678" s="5">
@@ -72426,7 +72426,7 @@
         <v>29</v>
       </c>
       <c r="H679" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I679,J679,K679)</f>
         <v>1</v>
       </c>
       <c r="I679" s="5">
@@ -72505,7 +72505,7 @@
         <v>29</v>
       </c>
       <c r="H680" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I680,J680,K680)</f>
         <v>2.6</v>
       </c>
       <c r="I680" s="5">
@@ -72582,7 +72582,7 @@
         <v>29</v>
       </c>
       <c r="H681" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I681,J681,K681)</f>
         <v>3.4285999999999999</v>
       </c>
       <c r="I681" s="5">
@@ -72659,7 +72659,7 @@
         <v>30</v>
       </c>
       <c r="H682" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I682,J682,K682)</f>
         <v>4</v>
       </c>
       <c r="I682" s="5">
@@ -72736,7 +72736,7 @@
         <v>29</v>
       </c>
       <c r="H683" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I683,J683,K683)</f>
         <v>2.6667000000000001</v>
       </c>
       <c r="I683" s="5">
@@ -72815,7 +72815,7 @@
         <v>30</v>
       </c>
       <c r="H684" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I684,J684,K684)</f>
         <v>4.7142999999999997</v>
       </c>
       <c r="I684" s="5">
@@ -72892,7 +72892,7 @@
         <v>29</v>
       </c>
       <c r="H685" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I685,J685,K685)</f>
         <v>4.4286000000000003</v>
       </c>
       <c r="I685" s="5">
@@ -72967,7 +72967,7 @@
         <v>32</v>
       </c>
       <c r="H686" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I686,J686,K686)</f>
         <v>4.5713999999999997</v>
       </c>
       <c r="I686" s="5">
@@ -73044,7 +73044,7 @@
         <v>29</v>
       </c>
       <c r="H687" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I687,J687,K687)</f>
         <v>2</v>
       </c>
       <c r="I687" s="5">
@@ -73115,7 +73115,7 @@
         <v>29</v>
       </c>
       <c r="H688" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I688,J688,K688)</f>
         <v>2</v>
       </c>
       <c r="I688" s="5">
@@ -73192,7 +73192,7 @@
         <v>29</v>
       </c>
       <c r="H689" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I689,J689,K689)</f>
         <v>1.7778</v>
       </c>
       <c r="I689" s="5">
@@ -73269,7 +73269,7 @@
         <v>29</v>
       </c>
       <c r="H690" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I690,J690,K690)</f>
         <v>2.5556000000000001</v>
       </c>
       <c r="I690" s="5">
@@ -73346,7 +73346,7 @@
         <v>32</v>
       </c>
       <c r="H691" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I691,J691,K691)</f>
         <v>3.5714000000000001</v>
       </c>
       <c r="I691" s="5">
@@ -73423,7 +73423,7 @@
         <v>32</v>
       </c>
       <c r="H692" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I692,J692,K692)</f>
         <v>2.1429</v>
       </c>
       <c r="I692" s="5">
@@ -73498,7 +73498,7 @@
         <v>29</v>
       </c>
       <c r="H693" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I693,J693,K693)</f>
         <v>3.2222</v>
       </c>
       <c r="I693" s="5">
@@ -73575,7 +73575,7 @@
         <v>32</v>
       </c>
       <c r="H694" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I694,J694,K694)</f>
         <v>4.2857000000000003</v>
       </c>
       <c r="I694" s="5">
@@ -73652,7 +73652,7 @@
         <v>29</v>
       </c>
       <c r="H695" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I695,J695,K695)</f>
         <v>3</v>
       </c>
       <c r="I695" s="5">
@@ -73731,7 +73731,7 @@
         <v>29</v>
       </c>
       <c r="H696" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I696,J696,K696)</f>
         <v>1.8889</v>
       </c>
       <c r="I696" s="5">
@@ -73808,7 +73808,7 @@
         <v>32</v>
       </c>
       <c r="H697" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I697,J697,K697)</f>
         <v>4.6666999999999996</v>
       </c>
       <c r="I697" s="5">
@@ -73885,7 +73885,7 @@
         <v>29</v>
       </c>
       <c r="H698" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I698,J698,K698)</f>
         <v>1.8571</v>
       </c>
       <c r="I698" s="5">
@@ -73962,7 +73962,7 @@
         <v>29</v>
       </c>
       <c r="H699" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I699,J699,K699)</f>
         <v>2.2222</v>
       </c>
       <c r="I699" s="5">
@@ -74039,7 +74039,7 @@
         <v>29</v>
       </c>
       <c r="H700" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I700,J700,K700)</f>
         <v>2.7778</v>
       </c>
       <c r="I700" s="5">
@@ -74118,7 +74118,7 @@
         <v>29</v>
       </c>
       <c r="H701" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I701,J701,K701)</f>
         <v>2.5714000000000001</v>
       </c>
       <c r="I701" s="5">
@@ -74195,7 +74195,7 @@
         <v>29</v>
       </c>
       <c r="H702" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I702,J702,K702)</f>
         <v>1.1429</v>
       </c>
       <c r="I702" s="5">
@@ -74272,7 +74272,7 @@
         <v>29</v>
       </c>
       <c r="H703" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I703,J703,K703)</f>
         <v>2.2222</v>
       </c>
       <c r="I703" s="5">
@@ -74349,7 +74349,7 @@
         <v>32</v>
       </c>
       <c r="H704" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I704,J704,K704)</f>
         <v>2.8571</v>
       </c>
       <c r="I704" s="5">
@@ -74426,7 +74426,7 @@
         <v>30</v>
       </c>
       <c r="H705" s="5">
-        <f t="shared" si="10"/>
+        <f>MAX(I705,J705,K705)</f>
         <v>4.5</v>
       </c>
       <c r="I705" s="5">
@@ -74505,7 +74505,7 @@
         <v>30</v>
       </c>
       <c r="H706" s="5">
-        <f t="shared" ref="H706:H769" si="11">MAX(I706,J706,K706)</f>
+        <f>MAX(I706,J706,K706)</f>
         <v>4.3333000000000004</v>
       </c>
       <c r="I706" s="5">
@@ -74576,7 +74576,7 @@
         <v>29</v>
       </c>
       <c r="H707" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I707,J707,K707)</f>
         <v>0.8</v>
       </c>
       <c r="I707" s="5">
@@ -74655,7 +74655,7 @@
         <v>29</v>
       </c>
       <c r="H708" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I708,J708,K708)</f>
         <v>1.4</v>
       </c>
       <c r="I708" s="5">
@@ -74732,7 +74732,7 @@
         <v>29</v>
       </c>
       <c r="H709" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I709,J709,K709)</f>
         <v>2.2856999999999998</v>
       </c>
       <c r="I709" s="5">
@@ -74809,7 +74809,7 @@
         <v>29</v>
       </c>
       <c r="H710" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I710,J710,K710)</f>
         <v>2.6</v>
       </c>
       <c r="I710" s="5">
@@ -74878,7 +74878,7 @@
         <v>29</v>
       </c>
       <c r="H711" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I711,J711,K711)</f>
         <v>2.1429</v>
       </c>
       <c r="I711" s="5">
@@ -74955,7 +74955,7 @@
         <v>29</v>
       </c>
       <c r="H712" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I712,J712,K712)</f>
         <v>1.8</v>
       </c>
       <c r="I712" s="5">
@@ -75034,7 +75034,7 @@
         <v>32</v>
       </c>
       <c r="H713" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I713,J713,K713)</f>
         <v>3.1429</v>
       </c>
       <c r="I713" s="5">
@@ -75111,7 +75111,7 @@
         <v>30</v>
       </c>
       <c r="H714" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I714,J714,K714)</f>
         <v>2.5556000000000001</v>
       </c>
       <c r="I714" s="5">
@@ -75188,7 +75188,7 @@
         <v>29</v>
       </c>
       <c r="H715" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I715,J715,K715)</f>
         <v>2.2856999999999998</v>
       </c>
       <c r="I715" s="5">
@@ -75265,7 +75265,7 @@
         <v>29</v>
       </c>
       <c r="H716" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I716,J716,K716)</f>
         <v>1.2222</v>
       </c>
       <c r="I716" s="5">
@@ -75342,7 +75342,7 @@
         <v>29</v>
       </c>
       <c r="H717" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I717,J717,K717)</f>
         <v>2</v>
       </c>
       <c r="I717" s="5">
@@ -75419,7 +75419,7 @@
         <v>29</v>
       </c>
       <c r="H718" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I718,J718,K718)</f>
         <v>2.4</v>
       </c>
       <c r="I718" s="5">
@@ -75498,7 +75498,7 @@
         <v>30</v>
       </c>
       <c r="H719" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I719,J719,K719)</f>
         <v>3.7778</v>
       </c>
       <c r="I719" s="5">
@@ -75575,7 +75575,7 @@
         <v>29</v>
       </c>
       <c r="H720" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I720,J720,K720)</f>
         <v>0.79549999999999998</v>
       </c>
       <c r="I720" s="5">
@@ -75654,7 +75654,7 @@
         <v>29</v>
       </c>
       <c r="H721" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I721,J721,K721)</f>
         <v>3.875</v>
       </c>
       <c r="I721" s="5">
@@ -75731,7 +75731,7 @@
         <v>29</v>
       </c>
       <c r="H722" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I722,J722,K722)</f>
         <v>2.1429</v>
       </c>
       <c r="I722" s="5">
@@ -75808,7 +75808,7 @@
         <v>32</v>
       </c>
       <c r="H723" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I723,J723,K723)</f>
         <v>2.4285999999999999</v>
       </c>
       <c r="I723" s="5">
@@ -75885,7 +75885,7 @@
         <v>30</v>
       </c>
       <c r="H724" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I724,J724,K724)</f>
         <v>3.2222</v>
       </c>
       <c r="I724" s="5">
@@ -75962,7 +75962,7 @@
         <v>30</v>
       </c>
       <c r="H725" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I725,J725,K725)</f>
         <v>4.25</v>
       </c>
       <c r="I725" s="5">
@@ -76041,7 +76041,7 @@
         <v>29</v>
       </c>
       <c r="H726" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I726,J726,K726)</f>
         <v>2.3332999999999999</v>
       </c>
       <c r="I726" s="5">
@@ -76116,7 +76116,7 @@
         <v>29</v>
       </c>
       <c r="H727" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I727,J727,K727)</f>
         <v>2.5</v>
       </c>
       <c r="I727" s="5">
@@ -76193,7 +76193,7 @@
         <v>32</v>
       </c>
       <c r="H728" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I728,J728,K728)</f>
         <v>4.8</v>
       </c>
       <c r="I728" s="5">
@@ -76264,7 +76264,7 @@
         <v>29</v>
       </c>
       <c r="H729" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I729,J729,K729)</f>
         <v>2.8571</v>
       </c>
       <c r="I729" s="5">
@@ -76341,7 +76341,7 @@
         <v>30</v>
       </c>
       <c r="H730" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I730,J730,K730)</f>
         <v>4.4286000000000003</v>
       </c>
       <c r="I730" s="5">
@@ -76418,7 +76418,7 @@
         <v>29</v>
       </c>
       <c r="H731" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I731,J731,K731)</f>
         <v>3.375</v>
       </c>
       <c r="I731" s="5">
@@ -76483,7 +76483,7 @@
         <v>30</v>
       </c>
       <c r="H732" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I732,J732,K732)</f>
         <v>3.5714000000000001</v>
       </c>
       <c r="I732" s="5">
@@ -76560,7 +76560,7 @@
         <v>30</v>
       </c>
       <c r="H733" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I733,J733,K733)</f>
         <v>4.5</v>
       </c>
       <c r="I733" s="5">
@@ -76639,7 +76639,7 @@
         <v>30</v>
       </c>
       <c r="H734" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I734,J734,K734)</f>
         <v>1.8889</v>
       </c>
       <c r="I734" s="5">
@@ -76716,7 +76716,7 @@
         <v>32</v>
       </c>
       <c r="H735" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I735,J735,K735)</f>
         <v>2.6667000000000001</v>
       </c>
       <c r="I735" s="5">
@@ -76785,7 +76785,7 @@
         <v>29</v>
       </c>
       <c r="H736" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I736,J736,K736)</f>
         <v>1.5713999999999999</v>
       </c>
       <c r="I736" s="5">
@@ -76862,7 +76862,7 @@
         <v>29</v>
       </c>
       <c r="H737" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I737,J737,K737)</f>
         <v>2.8571</v>
       </c>
       <c r="I737" s="5">
@@ -76939,7 +76939,7 @@
         <v>30</v>
       </c>
       <c r="H738" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I738,J738,K738)</f>
         <v>2.8889</v>
       </c>
       <c r="I738" s="5">
@@ -77016,7 +77016,7 @@
         <v>30</v>
       </c>
       <c r="H739" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I739,J739,K739)</f>
         <v>4.25</v>
       </c>
       <c r="I739" s="5">
@@ -77087,7 +77087,7 @@
         <v>29</v>
       </c>
       <c r="H740" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I740,J740,K740)</f>
         <v>1</v>
       </c>
       <c r="I740" s="5">
@@ -77166,7 +77166,7 @@
         <v>32</v>
       </c>
       <c r="H741" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I741,J741,K741)</f>
         <v>4.625</v>
       </c>
       <c r="I741" s="5">
@@ -77235,7 +77235,7 @@
         <v>29</v>
       </c>
       <c r="H742" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I742,J742,K742)</f>
         <v>3.625</v>
       </c>
       <c r="I742" s="5">
@@ -77314,7 +77314,7 @@
         <v>32</v>
       </c>
       <c r="H743" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I743,J743,K743)</f>
         <v>4.2</v>
       </c>
       <c r="I743" s="5">
@@ -77381,7 +77381,7 @@
         <v>29</v>
       </c>
       <c r="H744" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I744,J744,K744)</f>
         <v>3.5714000000000001</v>
       </c>
       <c r="I744" s="5">
@@ -77458,7 +77458,7 @@
         <v>30</v>
       </c>
       <c r="H745" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I745,J745,K745)</f>
         <v>2.2222</v>
       </c>
       <c r="I745" s="5">
@@ -77537,7 +77537,7 @@
         <v>29</v>
       </c>
       <c r="H746" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I746,J746,K746)</f>
         <v>2.5</v>
       </c>
       <c r="I746" s="5">
@@ -77616,7 +77616,7 @@
         <v>29</v>
       </c>
       <c r="H747" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I747,J747,K747)</f>
         <v>1.1111</v>
       </c>
       <c r="I747" s="5">
@@ -77695,7 +77695,7 @@
         <v>29</v>
       </c>
       <c r="H748" s="5">
-        <f t="shared" si="11"/>
+        <f>MAX(I748,J748,K748)</f>
         <v>2.4</v>
       </c>
       <c r="I748" s="5">
@@ -77754,7 +77754,7 @@
   </sheetData>
   <autoFilter ref="A1:Z748">
     <sortState ref="A2:Z748">
-      <sortCondition ref="C7"/>
+      <sortCondition ref="A7"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:AG760">
